--- a/data/hotels_by_city/Denver/Denver_shard_41.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_41.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="334">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33524-d10627948-Reviews-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
   </si>
   <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Littleton-Highlands-Ranch-Hotels-Courtyard-By-Marriott-Denver-SouthwestLittleton.h15856978.Hotel-Information?chkin=4%2F16%2F2018&amp;chkout=4%2F17%2F2018&amp;rm1=a2&amp;regionId=54959&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1522966779255&amp;vip=false&amp;c=70f0079f-af43-4162-939e-c0e371dfc052&amp;mctc=9&amp;exp_dp=109&amp;exp_ts=1522966785050&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,878 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r586468175-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>33524</t>
+  </si>
+  <si>
+    <t>10627948</t>
+  </si>
+  <si>
+    <t>586468175</t>
+  </si>
+  <si>
+    <t>06/10/2018</t>
+  </si>
+  <si>
+    <t>Nice hotel- 2 night stay</t>
+  </si>
+  <si>
+    <t>Stay June 1-3rd, 2018 in room 322.  The location is good and close to the freeways.  Nothing really in walking distance but with a car there is plenty of places to go eat or shop or take in the Denver activities.  Always lots to do in Denver.  The hotel was new and clean and well maintained.  Lots of free parking.  The room was up to date, roomy for 3 people, and had a nice big bathroom.  Having a microwave and small fridge was perfect for leftovers and to keep drinks cold.  The tv was a good size to watch from both beds.  The beds were so comfortable and soft.  The only thing I did not like was that you can hear the water running thru the pipes/walls constantly from other rooms.  So every time they were taking a shower or flushing the toilet.  Not sure if it is that way in all rooms but in this room it was definitely noticeable the entire time.  I didn't hear people other than the ones right next door.  I could hear their door or them talking when they came and went.  Other than that the noise level was ok.   The rest of the stay was great and I would recommend this hotel.  The indoor pool was small but it worked out great.  The little gym was perfect with the equipment to get a work out done.  The breakfast was for a fee so...Stay June 1-3rd, 2018 in room 322.  The location is good and close to the freeways.  Nothing really in walking distance but with a car there is plenty of places to go eat or shop or take in the Denver activities.  Always lots to do in Denver.  The hotel was new and clean and well maintained.  Lots of free parking.  The room was up to date, roomy for 3 people, and had a nice big bathroom.  Having a microwave and small fridge was perfect for leftovers and to keep drinks cold.  The tv was a good size to watch from both beds.  The beds were so comfortable and soft.  The only thing I did not like was that you can hear the water running thru the pipes/walls constantly from other rooms.  So every time they were taking a shower or flushing the toilet.  Not sure if it is that way in all rooms but in this room it was definitely noticeable the entire time.  I didn't hear people other than the ones right next door.  I could hear their door or them talking when they came and went.  Other than that the noise level was ok.   The rest of the stay was great and I would recommend this hotel.  The indoor pool was small but it worked out great.  The little gym was perfect with the equipment to get a work out done.  The breakfast was for a fee so we did not purchase food.  All the people we interacted with were friendly and professional.  The check in and check out was a breeze.  This place was perfect for where we needed to be daily and in the area we wanted to stay in.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Stay June 1-3rd, 2018 in room 322.  The location is good and close to the freeways.  Nothing really in walking distance but with a car there is plenty of places to go eat or shop or take in the Denver activities.  Always lots to do in Denver.  The hotel was new and clean and well maintained.  Lots of free parking.  The room was up to date, roomy for 3 people, and had a nice big bathroom.  Having a microwave and small fridge was perfect for leftovers and to keep drinks cold.  The tv was a good size to watch from both beds.  The beds were so comfortable and soft.  The only thing I did not like was that you can hear the water running thru the pipes/walls constantly from other rooms.  So every time they were taking a shower or flushing the toilet.  Not sure if it is that way in all rooms but in this room it was definitely noticeable the entire time.  I didn't hear people other than the ones right next door.  I could hear their door or them talking when they came and went.  Other than that the noise level was ok.   The rest of the stay was great and I would recommend this hotel.  The indoor pool was small but it worked out great.  The little gym was perfect with the equipment to get a work out done.  The breakfast was for a fee so...Stay June 1-3rd, 2018 in room 322.  The location is good and close to the freeways.  Nothing really in walking distance but with a car there is plenty of places to go eat or shop or take in the Denver activities.  Always lots to do in Denver.  The hotel was new and clean and well maintained.  Lots of free parking.  The room was up to date, roomy for 3 people, and had a nice big bathroom.  Having a microwave and small fridge was perfect for leftovers and to keep drinks cold.  The tv was a good size to watch from both beds.  The beds were so comfortable and soft.  The only thing I did not like was that you can hear the water running thru the pipes/walls constantly from other rooms.  So every time they were taking a shower or flushing the toilet.  Not sure if it is that way in all rooms but in this room it was definitely noticeable the entire time.  I didn't hear people other than the ones right next door.  I could hear their door or them talking when they came and went.  Other than that the noise level was ok.   The rest of the stay was great and I would recommend this hotel.  The indoor pool was small but it worked out great.  The little gym was perfect with the equipment to get a work out done.  The breakfast was for a fee so we did not purchase food.  All the people we interacted with were friendly and professional.  The check in and check out was a breeze.  This place was perfect for where we needed to be daily and in the area we wanted to stay in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r585868420-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>585868420</t>
+  </si>
+  <si>
+    <t>06/07/2018</t>
+  </si>
+  <si>
+    <t>One of the best Courtyard hotels</t>
+  </si>
+  <si>
+    <t>I stayed for 2 nights in a King room on the 3rd floor. The hotel is over a year young and still has the good, new smell. Everything looked and was clean and well maintained. The bedroom and the bathroom were large and tastefully decorated. The bed was comfortable, there was plenty of desk space, plenty of power outlets everywhere, and a large  couch with an ottoman. The TV had a large selection of premium HD channels. The walk-in shower was very large so that you could turn it on and set the water temperature before getting wet. There were three sets of towels, more than plenty. My rate included breakfast which is served from a counter (not a buffet) and was freshly prepared. The café serves Starbucks espresso drinks. I also had a light dinner one night, which was good and reasonably priced. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I stayed for 2 nights in a King room on the 3rd floor. The hotel is over a year young and still has the good, new smell. Everything looked and was clean and well maintained. The bedroom and the bathroom were large and tastefully decorated. The bed was comfortable, there was plenty of desk space, plenty of power outlets everywhere, and a large  couch with an ottoman. The TV had a large selection of premium HD channels. The walk-in shower was very large so that you could turn it on and set the water temperature before getting wet. There were three sets of towels, more than plenty. My rate included breakfast which is served from a counter (not a buffet) and was freshly prepared. The café serves Starbucks espresso drinks. I also had a light dinner one night, which was good and reasonably priced. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r584412215-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>584412215</t>
+  </si>
+  <si>
+    <t>06/01/2018</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>The staff and the property never disappoint me.  It is always refreshing to return to this property for business as I am always greeted with a smile and warm welcome.  The staff genuinely care about their customers.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r579744754-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>579744754</t>
+  </si>
+  <si>
+    <t>05/12/2018</t>
+  </si>
+  <si>
+    <t>Nice clean facility with helpful staff!</t>
+  </si>
+  <si>
+    <t>Stayed here for a couple of nights on a business trip. The facility is next to Marriott Residence Inn. Good quality hotel that is reasonably priced. Has all the business amenities like wifi, work desks etc. the rooms are spacious and clean. The front desk is helpful and service is pleasant. MoreShow less</t>
+  </si>
+  <si>
+    <t>wesleybean2016, General Manager at Courtyard by Marriott Denver Southwest / Littleton, responded to this reviewResponded May 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2018</t>
+  </si>
+  <si>
+    <t>Stayed here for a couple of nights on a business trip. The facility is next to Marriott Residence Inn. Good quality hotel that is reasonably priced. Has all the business amenities like wifi, work desks etc. the rooms are spacious and clean. The front desk is helpful and service is pleasant. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r563710095-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>563710095</t>
+  </si>
+  <si>
+    <t>03/02/2018</t>
+  </si>
+  <si>
+    <t>First class all around.</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here first in January 2018, and again on night of Feb. 28 while passing back thru Denver area.  Both stays were very nice.  I thought the hotel charged a reasonable rate for the high quality of room and services in this section of Denver area.  Front desk personnel were very friendly and helpful.  We found no faults with the room - everything was very good quality (shower, faucets, toilet, TV, bed, etc., and in very good condition.  The staff that handle the bar/bistro food area are very friendly and efficient, and quality/price of food and drinks is very reasonable.  Easy access off C-470 and Hwy 85.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>wesleybean2016, General Manager at Courtyard by Marriott Denver Southwest / Littleton, responded to this reviewResponded April 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2018</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here first in January 2018, and again on night of Feb. 28 while passing back thru Denver area.  Both stays were very nice.  I thought the hotel charged a reasonable rate for the high quality of room and services in this section of Denver area.  Front desk personnel were very friendly and helpful.  We found no faults with the room - everything was very good quality (shower, faucets, toilet, TV, bed, etc., and in very good condition.  The staff that handle the bar/bistro food area are very friendly and efficient, and quality/price of food and drinks is very reasonable.  Easy access off C-470 and Hwy 85.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r561749162-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>561749162</t>
+  </si>
+  <si>
+    <t>02/20/2018</t>
+  </si>
+  <si>
+    <t>Nice rooms.  Great staff!</t>
+  </si>
+  <si>
+    <t>What a pleasant surprise!  Really nice welcoming people.  The staff all work together as a team and in such a nice way!  I would HIGHLY recommend this hotel.Breakfast prices are reasonable too.  My oatmeal was $6.50 which included a ton of extras.  Room cost is about $100 a night.MoreShow less</t>
+  </si>
+  <si>
+    <t>wesleybean2016, General Manager at Courtyard by Marriott Denver Southwest / Littleton, responded to this reviewResponded February 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2018</t>
+  </si>
+  <si>
+    <t>What a pleasant surprise!  Really nice welcoming people.  The staff all work together as a team and in such a nice way!  I would HIGHLY recommend this hotel.Breakfast prices are reasonable too.  My oatmeal was $6.50 which included a ton of extras.  Room cost is about $100 a night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r556215758-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>556215758</t>
+  </si>
+  <si>
+    <t>01/24/2018</t>
+  </si>
+  <si>
+    <t>Simply excellent!</t>
+  </si>
+  <si>
+    <t>After a long flight, I arrived at the hotel only to find out it was booked with many issues (such as the breakfast was missing). Rather than simply ignoring me (like most hotel staff will do), front desk person - PAGE - simply took it upon herself and resolved all issues so quickly and efficiently.  This is the true saying of someone bending over backward to help their customers out. I am so impressed and I will ALWAYS stay in this hotel ever time I travel to Littleton - a ton! I have literally stayed in most hotels within the 5 mile perimeters from $130 Airbnb to highend hotels since I am here a lot - but this experience definitely buys my loyalty!!! Page has truly demonstrated what a good customer service is about. So, Marriott no longer needs to spend tons of menpower and money on marketing - they got in in 30 minutes of simple and basic customer experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>wesleybean2016, General Manager at Courtyard by Marriott Denver Southwest / Littleton, responded to this reviewResponded January 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2018</t>
+  </si>
+  <si>
+    <t>After a long flight, I arrived at the hotel only to find out it was booked with many issues (such as the breakfast was missing). Rather than simply ignoring me (like most hotel staff will do), front desk person - PAGE - simply took it upon herself and resolved all issues so quickly and efficiently.  This is the true saying of someone bending over backward to help their customers out. I am so impressed and I will ALWAYS stay in this hotel ever time I travel to Littleton - a ton! I have literally stayed in most hotels within the 5 mile perimeters from $130 Airbnb to highend hotels since I am here a lot - but this experience definitely buys my loyalty!!! Page has truly demonstrated what a good customer service is about. So, Marriott no longer needs to spend tons of menpower and money on marketing - they got in in 30 minutes of simple and basic customer experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r554367668-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>554367668</t>
+  </si>
+  <si>
+    <t>01/17/2018</t>
+  </si>
+  <si>
+    <t>Delightful staff</t>
+  </si>
+  <si>
+    <t>My sister and I stayed here over Christmas while visiting our mum at the Windcrest retirement community which is in walking distance.  Very comfortable rooms, good breakfast, bar and food available in evening.  I had flu and housekeeping were great, just dropping off what I needed..The real highlight are the staff. Nothing is too much trouble and they were so cheerful working over Christmas in their eye catching festive onesies when they would probably have preferred to be celebrating at home. Didn't get a chance to use pool or gym but looked good and there is a fire pit outside but it was too cold and snowy to use when we were there.This will always be our preferred hotel on our returns.Can take the tram into Denver/DIA or Super Shuttle from DIA were reasonably priced and got my sister safely to the hotel in a real blizzard.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>My sister and I stayed here over Christmas while visiting our mum at the Windcrest retirement community which is in walking distance.  Very comfortable rooms, good breakfast, bar and food available in evening.  I had flu and housekeeping were great, just dropping off what I needed..The real highlight are the staff. Nothing is too much trouble and they were so cheerful working over Christmas in their eye catching festive onesies when they would probably have preferred to be celebrating at home. Didn't get a chance to use pool or gym but looked good and there is a fire pit outside but it was too cold and snowy to use when we were there.This will always be our preferred hotel on our returns.Can take the tram into Denver/DIA or Super Shuttle from DIA were reasonably priced and got my sister safely to the hotel in a real blizzard.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r553843344-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>553843344</t>
+  </si>
+  <si>
+    <t>01/14/2018</t>
+  </si>
+  <si>
+    <t>Mixed</t>
+  </si>
+  <si>
+    <t>Ive spent 20 Nights at this location between Dec 2017/Jan2018. This last stay of 12 nights was exceptional. A huge thank you to the staff (Dani, Paige, Alyssa, Jordan, and Ciara) that always greeted me with a smile and made long out of town stays excellent with delicious food, and great recommendations for hiking on my weekend. 
+I did have one experience that soured my experience with the GM (Wes) and has prompted me to book my next two weeks at a different hotel. The last three mornings of  my stay Wes was  working the bistro counter. Wes took my order at 6:30 in the bistro and as I had done every other day marked on the card that I would pick up the meal to go at 7:45 on my way out to work. At 5 min to 7 I got a call from the assistant GM (?Laura) as I was about to get in the shower, explaining that my breakfast was ready. I told her I had specifically requested pickup at 7:45 and was not ready to leave. She explained they had a banquet to prepare for and were busy so they went ahead and made it. I arrived at the bistro where I was pleasantly greeted by the staff and they handed me the meal I had ordered that had been sitting on the counter for close to 50 minutes. I asked her to throw it away...Ive spent 20 Nights at this location between Dec 2017/Jan2018. This last stay of 12 nights was exceptional. A huge thank you to the staff (Dani, Paige, Alyssa, Jordan, and Ciara) that always greeted me with a smile and made long out of town stays excellent with delicious food, and great recommendations for hiking on my weekend. I did have one experience that soured my experience with the GM (Wes) and has prompted me to book my next two weeks at a different hotel. The last three mornings of  my stay Wes was  working the bistro counter. Wes took my order at 6:30 in the bistro and as I had done every other day marked on the card that I would pick up the meal to go at 7:45 on my way out to work. At 5 min to 7 I got a call from the assistant GM (?Laura) as I was about to get in the shower, explaining that my breakfast was ready. I told her I had specifically requested pickup at 7:45 and was not ready to leave. She explained they had a banquet to prepare for and were busy so they went ahead and made it. I arrived at the bistro where I was pleasantly greeted by the staff and they handed me the meal I had ordered that had been sitting on the counter for close to 50 minutes. I asked her to throw it away as I didn't want to get sick. She went  out of her way to replace it with a bagel and fruit I wouldn't have to wait on. I stopped Wes and explained that it was very poor food handling to treat his guests this way and verified that their bistro breakfast hours were from 6:30 -10:30. I don't believe any restaurant would let food stand that long and expect to serve it. He tried to transfer the blame twice on his employees despite the fact it was very clear to me he was closely managing the kitchen and the banquet event. He also reiterated the words of his asst. GM claiming they were too busy. So unfortunately Wes both lost my respect for not taking responsibility and trying to transfer the blame on his employees, and my business because he was "too busy" to serve me food that hadn't been sitting on the counter for an hour. Customers don't like being told you are too busy to help them.MoreShow less</t>
+  </si>
+  <si>
+    <t>wesleybean2016, General Manager at Courtyard by Marriott Denver Southwest / Littleton, responded to this reviewResponded January 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 15, 2018</t>
+  </si>
+  <si>
+    <t>Ive spent 20 Nights at this location between Dec 2017/Jan2018. This last stay of 12 nights was exceptional. A huge thank you to the staff (Dani, Paige, Alyssa, Jordan, and Ciara) that always greeted me with a smile and made long out of town stays excellent with delicious food, and great recommendations for hiking on my weekend. 
+I did have one experience that soured my experience with the GM (Wes) and has prompted me to book my next two weeks at a different hotel. The last three mornings of  my stay Wes was  working the bistro counter. Wes took my order at 6:30 in the bistro and as I had done every other day marked on the card that I would pick up the meal to go at 7:45 on my way out to work. At 5 min to 7 I got a call from the assistant GM (?Laura) as I was about to get in the shower, explaining that my breakfast was ready. I told her I had specifically requested pickup at 7:45 and was not ready to leave. She explained they had a banquet to prepare for and were busy so they went ahead and made it. I arrived at the bistro where I was pleasantly greeted by the staff and they handed me the meal I had ordered that had been sitting on the counter for close to 50 minutes. I asked her to throw it away...Ive spent 20 Nights at this location between Dec 2017/Jan2018. This last stay of 12 nights was exceptional. A huge thank you to the staff (Dani, Paige, Alyssa, Jordan, and Ciara) that always greeted me with a smile and made long out of town stays excellent with delicious food, and great recommendations for hiking on my weekend. I did have one experience that soured my experience with the GM (Wes) and has prompted me to book my next two weeks at a different hotel. The last three mornings of  my stay Wes was  working the bistro counter. Wes took my order at 6:30 in the bistro and as I had done every other day marked on the card that I would pick up the meal to go at 7:45 on my way out to work. At 5 min to 7 I got a call from the assistant GM (?Laura) as I was about to get in the shower, explaining that my breakfast was ready. I told her I had specifically requested pickup at 7:45 and was not ready to leave. She explained they had a banquet to prepare for and were busy so they went ahead and made it. I arrived at the bistro where I was pleasantly greeted by the staff and they handed me the meal I had ordered that had been sitting on the counter for close to 50 minutes. I asked her to throw it away as I didn't want to get sick. She went  out of her way to replace it with a bagel and fruit I wouldn't have to wait on. I stopped Wes and explained that it was very poor food handling to treat his guests this way and verified that their bistro breakfast hours were from 6:30 -10:30. I don't believe any restaurant would let food stand that long and expect to serve it. He tried to transfer the blame twice on his employees despite the fact it was very clear to me he was closely managing the kitchen and the banquet event. He also reiterated the words of his asst. GM claiming they were too busy. So unfortunately Wes both lost my respect for not taking responsibility and trying to transfer the blame on his employees, and my business because he was "too busy" to serve me food that hadn't been sitting on the counter for an hour. Customers don't like being told you are too busy to help them.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r542629504-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>542629504</t>
+  </si>
+  <si>
+    <t>11/22/2017</t>
+  </si>
+  <si>
+    <t>Great place to welcome our grandson!</t>
+  </si>
+  <si>
+    <t>My wife and I had a delightful stay at this lovely Courtyard. This property was very convenient to the hospital and was the perfect place to unwind. This Courtyard was not only clean and well organized-it was inviting! On top of that the entire staff was friendly and professional. They made my wife and I feel special. This was especially needed after a 24 day without sleep due to travel. If I needed a hotel in the Denver area again, I would not hesitate to stay at this Courtyard!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>My wife and I had a delightful stay at this lovely Courtyard. This property was very convenient to the hospital and was the perfect place to unwind. This Courtyard was not only clean and well organized-it was inviting! On top of that the entire staff was friendly and professional. They made my wife and I feel special. This was especially needed after a 24 day without sleep due to travel. If I needed a hotel in the Denver area again, I would not hesitate to stay at this Courtyard!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r542038836-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>542038836</t>
+  </si>
+  <si>
+    <t>11/19/2017</t>
+  </si>
+  <si>
+    <t>Business travel</t>
+  </si>
+  <si>
+    <t>As most courtyards are it met the needs of a quick in and out stay for business travel. Room was clean, staff was good. I would stay here again if it made sense to do so. No views or novelties but good for business travel.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>wesleybean2016, General Manager at Courtyard by Marriott Denver Southwest / Littleton, responded to this reviewResponded November 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2017</t>
+  </si>
+  <si>
+    <t>As most courtyards are it met the needs of a quick in and out stay for business travel. Room was clean, staff was good. I would stay here again if it made sense to do so. No views or novelties but good for business travel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r539759927-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>539759927</t>
+  </si>
+  <si>
+    <t>11/09/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean and shiny </t>
+  </si>
+  <si>
+    <t>This hotel is just one year old, so everything still has that “new car” feel about it.  The staff were so friendly and helpful.  I’ll stay here again when I’m back. The food and restaurant/bar is the same format as all the other Courtyards.  But it’s more than adequate for any length of stay.  MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is just one year old, so everything still has that “new car” feel about it.  The staff were so friendly and helpful.  I’ll stay here again when I’m back. The food and restaurant/bar is the same format as all the other Courtyards.  But it’s more than adequate for any length of stay.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r524941253-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>524941253</t>
+  </si>
+  <si>
+    <t>09/16/2017</t>
+  </si>
+  <si>
+    <t>Nice Hotel, close to many businesses</t>
+  </si>
+  <si>
+    <t>I was here on a conference. It's a very nice hotel, located close to many businesses. The hotel staff was nice and very courteous. The hotel has a lot of parking space. It is a little ways out from the airport but traffic wasn't too bad. I had no complaints or issues during my stay at this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>wesleybean2016, General Manager at Courtyard by Marriott Denver Southwest / Littleton, responded to this reviewResponded September 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 26, 2017</t>
+  </si>
+  <si>
+    <t>I was here on a conference. It's a very nice hotel, located close to many businesses. The hotel staff was nice and very courteous. The hotel has a lot of parking space. It is a little ways out from the airport but traffic wasn't too bad. I had no complaints or issues during my stay at this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r524604147-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>524604147</t>
+  </si>
+  <si>
+    <t>09/15/2017</t>
+  </si>
+  <si>
+    <t>Nice, New Hotel!</t>
+  </si>
+  <si>
+    <t>Stayed here as I was passing through Denver. It was much more affordable than the Marriott locations deeper in the city. I was impressed with how new everything was and the cleanliness of the hotel. Rooms were very well styled. Easy highway access for people driving through. Yes, there is construction on one side of the hotel and a major highway on the other, but I couldn't hear the traffic or construction during my stay. The people were very friendly and the check-in/out was seamless.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Stayed here as I was passing through Denver. It was much more affordable than the Marriott locations deeper in the city. I was impressed with how new everything was and the cleanliness of the hotel. Rooms were very well styled. Easy highway access for people driving through. Yes, there is construction on one side of the hotel and a major highway on the other, but I couldn't hear the traffic or construction during my stay. The people were very friendly and the check-in/out was seamless.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r523769436-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>523769436</t>
+  </si>
+  <si>
+    <t>09/12/2017</t>
+  </si>
+  <si>
+    <t>Nice, clean, new hotel</t>
+  </si>
+  <si>
+    <t>Very clean and nice.  Hotel was built about a year ago so everything is in great condition.  I loved that they have streaming services like Netflix built in to their tv system making it easy to watch your favorite shows on the room tv instead of your portable device.  My only complaint is that there is no door on the fancy glass shower in our King room.  This meant things got a bit drafty and the floor got wet.  I've been at another similarly new hotel in this chain and they did have a door, I preferred that very much and it was still very stylish.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very clean and nice.  Hotel was built about a year ago so everything is in great condition.  I loved that they have streaming services like Netflix built in to their tv system making it easy to watch your favorite shows on the room tv instead of your portable device.  My only complaint is that there is no door on the fancy glass shower in our King room.  This meant things got a bit drafty and the floor got wet.  I've been at another similarly new hotel in this chain and they did have a door, I preferred that very much and it was still very stylish.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r520594784-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>520594784</t>
+  </si>
+  <si>
+    <t>09/02/2017</t>
+  </si>
+  <si>
+    <t>Beautiful Hotel,nice staff</t>
+  </si>
+  <si>
+    <t>We stayed here a total of 8 nights. Room was very nice, although the coach was chosen for looks not for comfort. The staff was always friendly and helpful. We did notice they had no hot tub in the pool area. We would have used that. We ate at The Bistro  and the food was real good.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>wesleybean2016, General Manager at Courtyard by Marriott Denver Southwest / Littleton, responded to this reviewResponded September 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2017</t>
+  </si>
+  <si>
+    <t>We stayed here a total of 8 nights. Room was very nice, although the coach was chosen for looks not for comfort. The staff was always friendly and helpful. We did notice they had no hot tub in the pool area. We would have used that. We ate at The Bistro  and the food was real good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r518174172-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>518174172</t>
+  </si>
+  <si>
+    <t>08/27/2017</t>
+  </si>
+  <si>
+    <t>Lauren Assistant manager is a real loser DO NOT STAY HERE</t>
+  </si>
+  <si>
+    <t>I am a platinum member of the Marriott this is the worst hotel I have stayed out there actually rented me a room that had a bathroom that didn't work did not refund me the money and acted like it was my fault!DO NOT STAY HERE!!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>wesleybean2016, General Manager at Courtyard by Marriott Denver Southwest / Littleton, responded to this reviewResponded August 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2017</t>
+  </si>
+  <si>
+    <t>I am a platinum member of the Marriott this is the worst hotel I have stayed out there actually rented me a room that had a bathroom that didn't work did not refund me the money and acted like it was my fault!DO NOT STAY HERE!!!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r511884287-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>511884287</t>
+  </si>
+  <si>
+    <t>08/12/2017</t>
+  </si>
+  <si>
+    <t>Recent Wedding Party hotel</t>
+  </si>
+  <si>
+    <t>Glad to have this new hotel here in Littleton, we stayed recently and everyone enjoyed ourselves.  The staff was very helpful and friendly, and we were able to rent the bar area for a private reception.   The rooms were nice and contemporary, I especially liked the couch with ottoman footstool to relax in.MoreShow less</t>
+  </si>
+  <si>
+    <t>wesleybean2016, General Manager at Courtyard by Marriott Denver Southwest / Littleton, responded to this reviewResponded August 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2017</t>
+  </si>
+  <si>
+    <t>Glad to have this new hotel here in Littleton, we stayed recently and everyone enjoyed ourselves.  The staff was very helpful and friendly, and we were able to rent the bar area for a private reception.   The rooms were nice and contemporary, I especially liked the couch with ottoman footstool to relax in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r504611904-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>504611904</t>
+  </si>
+  <si>
+    <t>07/22/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moving Daughter </t>
+  </si>
+  <si>
+    <t>One of the best hotels I have ever stayed at. Very clean and awesomely comfortable. I highly recommend spending the extra for a suite. It is so spacious and simply lovely.  Kudos to the staff.  Amber was an absolute delight and very helpful with questions about the area and trival question. I can't remember the woman's name but you can't miss her. She works at the bistro and is very skinny.  She is a wonderious delight and is always working to please every client of the hotel. Those two above all deserve a bonus and is what will bring me back to this hotel and sets it above the rest. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>wesleybean2016, General Manager at Courtyard by Marriott Denver Southwest / Littleton, responded to this reviewResponded August 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2017</t>
+  </si>
+  <si>
+    <t>One of the best hotels I have ever stayed at. Very clean and awesomely comfortable. I highly recommend spending the extra for a suite. It is so spacious and simply lovely.  Kudos to the staff.  Amber was an absolute delight and very helpful with questions about the area and trival question. I can't remember the woman's name but you can't miss her. She works at the bistro and is very skinny.  She is a wonderious delight and is always working to please every client of the hotel. Those two above all deserve a bonus and is what will bring me back to this hotel and sets it above the rest. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r504509213-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>504509213</t>
+  </si>
+  <si>
+    <t>You Get What You Pay For</t>
+  </si>
+  <si>
+    <t>First class lodgings but very expensive at $200 +/- per night.  Staff was excellent; attentive, friendly and efficient.  Amber was very helpful to me when there were minor issues with the door lock on my room.  The rooms were very well appointed .  The Courtyard home screen on the TV made me nuts with a bunch of millennials dancing and running around over and over. The Bar and restaurant was limited but very tastefully done with almost everything on the menu prepared fresh.The location is near walking trails but be prepared to travel to find actual restaurants.  I would not stay at a place this expensive unless my employer was paying for it.  A great experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>First class lodgings but very expensive at $200 +/- per night.  Staff was excellent; attentive, friendly and efficient.  Amber was very helpful to me when there were minor issues with the door lock on my room.  The rooms were very well appointed .  The Courtyard home screen on the TV made me nuts with a bunch of millennials dancing and running around over and over. The Bar and restaurant was limited but very tastefully done with almost everything on the menu prepared fresh.The location is near walking trails but be prepared to travel to find actual restaurants.  I would not stay at a place this expensive unless my employer was paying for it.  A great experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r500975682-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>500975682</t>
+  </si>
+  <si>
+    <t>07/11/2017</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t>Stayed at this really nice hotel. The staff was super friendly and the room was very comfortable.I was able to get breakfast in hotel and the whole hotel was very homey and comfortable.Will definitely like to stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Stayed at this really nice hotel. The staff was super friendly and the room was very comfortable.I was able to get breakfast in hotel and the whole hotel was very homey and comfortable.Will definitely like to stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r496534013-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>496534013</t>
+  </si>
+  <si>
+    <t>06/27/2017</t>
+  </si>
+  <si>
+    <t>Great Customer Service and Friendly Staff!</t>
+  </si>
+  <si>
+    <t>We recently held an event (grad party) at this Marriott (in May 2017). It is a brand new Courtyard which never hurts, but what made the event wonderful was the customer service by the staff.  As we were planning the event there was a change in staff and the communication between old/new staff wasn't ideal so we did need to repeat some of the steps we had already taken. This could obviously be improved, but the willingness of the staff overall to work with us and make the event exactly what we wanted made this a non-issue in the end. Also, the catering staff went above and beyond to make certain everything was taken care of and that we were happy, not only before the event, but throughout and after...amazingly friendly! They didn't miss a step. Maria (hoping I got the name correct) should be commended on her commitment to serving high-quality food (with a smile...her pork sliders were commented on all evening :)) All of this, and the price was much more reasonable than other venues we checked nearby.  Just as information; our party was around 50 people and we had planned for more. The room was plenty big enough (could have had double because we utilized the outside area near the fire-pit just outside the room). The room we used is also used for conferences / business meetings so it's a pretty standard rectangle with a long, nice...We recently held an event (grad party) at this Marriott (in May 2017). It is a brand new Courtyard which never hurts, but what made the event wonderful was the customer service by the staff.  As we were planning the event there was a change in staff and the communication between old/new staff wasn't ideal so we did need to repeat some of the steps we had already taken. This could obviously be improved, but the willingness of the staff overall to work with us and make the event exactly what we wanted made this a non-issue in the end. Also, the catering staff went above and beyond to make certain everything was taken care of and that we were happy, not only before the event, but throughout and after...amazingly friendly! They didn't miss a step. Maria (hoping I got the name correct) should be commended on her commitment to serving high-quality food (with a smile...her pork sliders were commented on all evening :)) All of this, and the price was much more reasonable than other venues we checked nearby.  Just as information; our party was around 50 people and we had planned for more. The room was plenty big enough (could have had double because we utilized the outside area near the fire-pit just outside the room). The room we used is also used for conferences / business meetings so it's a pretty standard rectangle with a long, nice cabinet/counter for serving at the back and any A/V-tech you would need. They have various shapes/sizes of tables and we used a combination and fit a photo-booth in the room as well. The room could be used for a variety of small to moderately sized events. We did have a room for the evening and it was really nice (again...new building) and clean!MoreShow less</t>
+  </si>
+  <si>
+    <t>We recently held an event (grad party) at this Marriott (in May 2017). It is a brand new Courtyard which never hurts, but what made the event wonderful was the customer service by the staff.  As we were planning the event there was a change in staff and the communication between old/new staff wasn't ideal so we did need to repeat some of the steps we had already taken. This could obviously be improved, but the willingness of the staff overall to work with us and make the event exactly what we wanted made this a non-issue in the end. Also, the catering staff went above and beyond to make certain everything was taken care of and that we were happy, not only before the event, but throughout and after...amazingly friendly! They didn't miss a step. Maria (hoping I got the name correct) should be commended on her commitment to serving high-quality food (with a smile...her pork sliders were commented on all evening :)) All of this, and the price was much more reasonable than other venues we checked nearby.  Just as information; our party was around 50 people and we had planned for more. The room was plenty big enough (could have had double because we utilized the outside area near the fire-pit just outside the room). The room we used is also used for conferences / business meetings so it's a pretty standard rectangle with a long, nice...We recently held an event (grad party) at this Marriott (in May 2017). It is a brand new Courtyard which never hurts, but what made the event wonderful was the customer service by the staff.  As we were planning the event there was a change in staff and the communication between old/new staff wasn't ideal so we did need to repeat some of the steps we had already taken. This could obviously be improved, but the willingness of the staff overall to work with us and make the event exactly what we wanted made this a non-issue in the end. Also, the catering staff went above and beyond to make certain everything was taken care of and that we were happy, not only before the event, but throughout and after...amazingly friendly! They didn't miss a step. Maria (hoping I got the name correct) should be commended on her commitment to serving high-quality food (with a smile...her pork sliders were commented on all evening :)) All of this, and the price was much more reasonable than other venues we checked nearby.  Just as information; our party was around 50 people and we had planned for more. The room was plenty big enough (could have had double because we utilized the outside area near the fire-pit just outside the room). The room we used is also used for conferences / business meetings so it's a pretty standard rectangle with a long, nice cabinet/counter for serving at the back and any A/V-tech you would need. They have various shapes/sizes of tables and we used a combination and fit a photo-booth in the room as well. The room could be used for a variety of small to moderately sized events. We did have a room for the evening and it was really nice (again...new building) and clean!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r495009704-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>495009704</t>
+  </si>
+  <si>
+    <t>06/21/2017</t>
+  </si>
+  <si>
+    <t>Fantastic layout and incredibly accommodating staff</t>
+  </si>
+  <si>
+    <t>We had some friends from Littleton meet us at the hotel to hang out outside and eat some pizza.  The staff did everything for us, even though we weren't "buying" it from them.  We sat outside in a wonderfully appointed patio area.  Only one detractor, and it is not about this particular location.  Marriott...stop charging for coffee in the lobby.  This partnership with Starbucks is a huge detractor from your brand.  Having a Bistro in the lobby is great, and I don't expect free food, but coffee?...come on.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r492556866-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>492556866</t>
+  </si>
+  <si>
+    <t>06/12/2017</t>
+  </si>
+  <si>
+    <t>Never again!</t>
+  </si>
+  <si>
+    <t>Talk about RUDE people!!!  We asked for a room with two beds and they said they wouldn't unless we paid for the room twice ?!? We thought it was a joke but it wasn't. Then we asked about breakfast yep for purchase in the morning (don't expect much).  We prepaid for our night and they charged us $20 for incidentals but we didn't buy a single thing and they charged us upon checking as we get notice on our cell phones when a charge has been made. We were so tired but be ware the beds are hard as a rock. The reason why the price is so high is because the ceilings are so tall that each floor is really like 1.5 floors high ( who cares). The thing that got me the most was just how rude the man at the counter was I can't stress that enough I willNEVER be back!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>wesleybean2016, General Manager at Courtyard by Marriott Denver Southwest / Littleton, responded to this reviewResponded June 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 13, 2017</t>
+  </si>
+  <si>
+    <t>Talk about RUDE people!!!  We asked for a room with two beds and they said they wouldn't unless we paid for the room twice ?!? We thought it was a joke but it wasn't. Then we asked about breakfast yep for purchase in the morning (don't expect much).  We prepaid for our night and they charged us $20 for incidentals but we didn't buy a single thing and they charged us upon checking as we get notice on our cell phones when a charge has been made. We were so tired but be ware the beds are hard as a rock. The reason why the price is so high is because the ceilings are so tall that each floor is really like 1.5 floors high ( who cares). The thing that got me the most was just how rude the man at the counter was I can't stress that enough I willNEVER be back!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r487942585-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>487942585</t>
+  </si>
+  <si>
+    <t>05/26/2017</t>
+  </si>
+  <si>
+    <t>Nice property...needs more staff</t>
+  </si>
+  <si>
+    <t>We stayed here for 4 nights, attending a family wedding. Location is good - fairly close to restaurants and shopping. New, clean. Nice spaces for socializing. Minuses - the Bistro is not equipped for large groups. They got slammed. Staff was working hard but it appeared that they were understaffed and the kitchen seemed to produce one meal at a time. Some folks waited an hour after ordering.  One other nit...a property charging this much should have decent toilet paper :)</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r487872702-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>487872702</t>
+  </si>
+  <si>
+    <t>Lovely hotel</t>
+  </si>
+  <si>
+    <t>I really enjoy staying at Marriott brand hotels; The rooms are always clean, the staff is always very helpful and the restaurants and breakfast they offer are quite the treat!  Definitely will be back.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r481956193-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>481956193</t>
+  </si>
+  <si>
+    <t>05/05/2017</t>
+  </si>
+  <si>
+    <t>Clean crisp and friendly</t>
+  </si>
+  <si>
+    <t>Everything in the hotel is clean. The bar has a hot chocolate.  The staff at the bar and front desk are super friendly and quick. The pool was freezing cold but they had guest towels and a great set up in the gym.MoreShow less</t>
+  </si>
+  <si>
+    <t>wesleybean2016, General Manager at Courtyard by Marriott Denver Southwest / Littleton, responded to this reviewResponded May 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 7, 2017</t>
+  </si>
+  <si>
+    <t>Everything in the hotel is clean. The bar has a hot chocolate.  The staff at the bar and front desk are super friendly and quick. The pool was freezing cold but they had guest towels and a great set up in the gym.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r476842195-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>476842195</t>
+  </si>
+  <si>
+    <t>04/18/2017</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>Great staff!  Friendly and most helpful.  Very clean hotel!  Will recommend to family.  Great location and. Close to everything.  Next time family comes in town we will give this hotel more business.  Thank you!MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris B, Director of Sales at Courtyard by Marriott Denver Southwest / Littleton, responded to this reviewResponded April 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 20, 2017</t>
+  </si>
+  <si>
+    <t>Great staff!  Friendly and most helpful.  Very clean hotel!  Will recommend to family.  Great location and. Close to everything.  Next time family comes in town we will give this hotel more business.  Thank you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r476575261-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>476575261</t>
+  </si>
+  <si>
+    <t>04/17/2017</t>
+  </si>
+  <si>
+    <t>Great staff! Great food!</t>
+  </si>
+  <si>
+    <t>I stayed here for business and really enjoyed my stay. The hotel is brand new, sparkly and shiny. The staff was very pleasant and greeted me and every time I came and left. I ate breakfast at the bistro both mornings and the food was extremely good. I had the Daybreak Fried Eggs plate and the Healthy Start sandwich which I highly recommend both. The fruit was freshly cut and the coffee was always to my liking. Everyone was super friendly and helpful! Thank you for a great stay!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r474602489-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>474602489</t>
+  </si>
+  <si>
+    <t>04/11/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very nice, great staff. </t>
+  </si>
+  <si>
+    <t>We really enjoyed our stay. The new room design is really cool, especially the sofa and ottoman set up. That made for some good TV watching time. Breakfast was not included, however, we purchased breakfast and it was huge and quite good, better than a typical buffet. Pam and Nancy were both extremely helpful, they went well out of their way to make sure I had some important documents printed…Very appreciative! Great service, great hotel, we will return!MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris B, Director of Sales at Courtyard by Marriott Denver Southwest / Littleton, responded to this reviewResponded April 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2017</t>
+  </si>
+  <si>
+    <t>We really enjoyed our stay. The new room design is really cool, especially the sofa and ottoman set up. That made for some good TV watching time. Breakfast was not included, however, we purchased breakfast and it was huge and quite good, better than a typical buffet. Pam and Nancy were both extremely helpful, they went well out of their way to make sure I had some important documents printed…Very appreciative! Great service, great hotel, we will return!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r462616696-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>462616696</t>
+  </si>
+  <si>
+    <t>02/24/2017</t>
+  </si>
+  <si>
+    <t>Great stay with very friendly staff</t>
+  </si>
+  <si>
+    <t>A fresh look, very modern and friendly staff hotel. I liked the stay, the bed is excellent, rooms are clean and the bath room is sober. TV has streaming services like Netflix. So if you have an account you can watch your favourite shows. Breakfast is ok-ish. Not much to choose from and very  one sided. Would suggest to explore the nearby cafe where they serve breakfast. In the area there is lot much to do, you need a car to explore. But for it was an excellent location near the office I had to go to. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Chris B, Director of Sales at Courtyard by Marriott Denver Southwest / Littleton, responded to this reviewResponded March 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 3, 2017</t>
+  </si>
+  <si>
+    <t>A fresh look, very modern and friendly staff hotel. I liked the stay, the bed is excellent, rooms are clean and the bath room is sober. TV has streaming services like Netflix. So if you have an account you can watch your favourite shows. Breakfast is ok-ish. Not much to choose from and very  one sided. Would suggest to explore the nearby cafe where they serve breakfast. In the area there is lot much to do, you need a car to explore. But for it was an excellent location near the office I had to go to. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r460858494-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>460858494</t>
+  </si>
+  <si>
+    <t>02/18/2017</t>
+  </si>
+  <si>
+    <t>Great Value!</t>
+  </si>
+  <si>
+    <t>I really appreciated the incredible customer service and courtesy of the staff at this property. There was plenty of parking, and I appreciated the proximity to I-25 and the Park Meadows Mall. I enjoyed my stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I really appreciated the incredible customer service and courtesy of the staff at this property. There was plenty of parking, and I appreciated the proximity to I-25 and the Park Meadows Mall. I enjoyed my stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r453685605-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>453685605</t>
+  </si>
+  <si>
+    <t>01/20/2017</t>
+  </si>
+  <si>
+    <t>Very Accommodating!</t>
+  </si>
+  <si>
+    <t>Some friends and I spent last weekend in Littleton. Loved the hotel!  It's very new and clean.  My girlfriend booked it through Expedia.  Unfortunately, the room we requested was not available.  Expedia messed up the reservation, and Emmy was SO helpful.  We ended up getting an extra room, free of charge, even though it was Expedia's fault.  The rooms were beautiful and the beds were very comfortable.  If I had to critique a few things, there wasn't much drawer/shelving space, and the pool was pretty chilly, considering it was a heated pool.  But it definitely would not stop me from returning there.  Aaron was also very helpful and kind.   I loved the hotel lobby/seating area... very enjoyable.  I do hope to return there in the near future!MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris B, Director of Sales at Courtyard by Marriott Denver Southwest / Littleton, responded to this reviewResponded January 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2017</t>
+  </si>
+  <si>
+    <t>Some friends and I spent last weekend in Littleton. Loved the hotel!  It's very new and clean.  My girlfriend booked it through Expedia.  Unfortunately, the room we requested was not available.  Expedia messed up the reservation, and Emmy was SO helpful.  We ended up getting an extra room, free of charge, even though it was Expedia's fault.  The rooms were beautiful and the beds were very comfortable.  If I had to critique a few things, there wasn't much drawer/shelving space, and the pool was pretty chilly, considering it was a heated pool.  But it definitely would not stop me from returning there.  Aaron was also very helpful and kind.   I loved the hotel lobby/seating area... very enjoyable.  I do hope to return there in the near future!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r451592260-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>451592260</t>
+  </si>
+  <si>
+    <t>01/12/2017</t>
+  </si>
+  <si>
+    <t>Best Staff ever!</t>
+  </si>
+  <si>
+    <t>A Gem.   I travel every week for work and have never encountered such a great staff.    Not only are they friendly, they actually work well together!   It makes for a very pleasant stay.       The rooms are full of outlets (hooray) and plenty of light.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris B, Director of Sales at Courtyard by Marriott Denver Southwest / Littleton, responded to this reviewResponded January 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2017</t>
+  </si>
+  <si>
+    <t>A Gem.   I travel every week for work and have never encountered such a great staff.    Not only are they friendly, they actually work well together!   It makes for a very pleasant stay.       The rooms are full of outlets (hooray) and plenty of light.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r451489278-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>451489278</t>
+  </si>
+  <si>
+    <t>Wonderful and helpful staff!</t>
+  </si>
+  <si>
+    <t>The café staff was so helpful - especially enjoyed starting our morning with Darrell!  His positive attitude was such a nice way to start each day!!  The selections were nice and service perfect!  Thank you Darrell!!MoreShow less</t>
+  </si>
+  <si>
+    <t>The café staff was so helpful - especially enjoyed starting our morning with Darrell!  His positive attitude was such a nice way to start each day!!  The selections were nice and service perfect!  Thank you Darrell!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r445127225-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>445127225</t>
+  </si>
+  <si>
+    <t>12/18/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of my favorite hotels of all time!  Absolutely love the new Courtyard Standards! </t>
+  </si>
+  <si>
+    <t>We lived everything about this hotel and room/layout and features.  They have completely recreated the ultimate hotel room,  seriously!  Huge curtain less shower,  mic. Mini fridge and single serve coffee were excellent.  Loved the new sofa arenagement!  They have finally come up with the PERFECT TV viewing experience with free HBO and Showtime as well as super easy login if you use Netflix,  Hulu or other streaming service.  The TV remote is button less so it is easy for staff to keep clean,  what a concept!  The furniture is so practical!  This is now the only kind of room I will ever want!  Way to go Courtyard! MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>wesleybean2016, General Manager at Courtyard by Marriott Denver Southwest / Littleton, responded to this reviewResponded December 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 20, 2016</t>
+  </si>
+  <si>
+    <t>We lived everything about this hotel and room/layout and features.  They have completely recreated the ultimate hotel room,  seriously!  Huge curtain less shower,  mic. Mini fridge and single serve coffee were excellent.  Loved the new sofa arenagement!  They have finally come up with the PERFECT TV viewing experience with free HBO and Showtime as well as super easy login if you use Netflix,  Hulu or other streaming service.  The TV remote is button less so it is easy for staff to keep clean,  what a concept!  The furniture is so practical!  This is now the only kind of room I will ever want!  Way to go Courtyard! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r440757237-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>440757237</t>
+  </si>
+  <si>
+    <t>11/28/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great hotel during hockey tournament </t>
+  </si>
+  <si>
+    <t>The staff at the Littleton Courtyard was exceptional!! Front desk, housekeeping, and f&amp;b staff were super friendly.  Each day wished our team good luck and had a great attitude.  The hotel is very clean and easy to get to from the freeway and main streets.   Defintely will stay again and recommend to anyone who is staying in Littleton, CO to stay at this hotel.  5 star staff!!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Chris B, Director of Sales at Courtyard by Marriott Denver Southwest / Littleton, responded to this reviewResponded November 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2016</t>
+  </si>
+  <si>
+    <t>The staff at the Littleton Courtyard was exceptional!! Front desk, housekeeping, and f&amp;b staff were super friendly.  Each day wished our team good luck and had a great attitude.  The hotel is very clean and easy to get to from the freeway and main streets.   Defintely will stay again and recommend to anyone who is staying in Littleton, CO to stay at this hotel.  5 star staff!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r440326386-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>440326386</t>
+  </si>
+  <si>
+    <t>11/27/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Few negatives </t>
+  </si>
+  <si>
+    <t>This is a new hotel in the area. The staff is cheerful and helpful. After a little snafu with missing towels, housekeeping kept  the room clean and stocked. The beds are comfortable with just the right amount of support. The north-facing rooms have a nice view of the foothills. The only negatives are the smell (it smells a bit like carpet adhesive), but I expect that to dissipate in the near future. Unlike other Marriott Courtyard hotels in the area, this Marriott does not provide free popcorn in the evenings in the restaurant area. MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a new hotel in the area. The staff is cheerful and helpful. After a little snafu with missing towels, housekeeping kept  the room clean and stocked. The beds are comfortable with just the right amount of support. The north-facing rooms have a nice view of the foothills. The only negatives are the smell (it smells a bit like carpet adhesive), but I expect that to dissipate in the near future. Unlike other Marriott Courtyard hotels in the area, this Marriott does not provide free popcorn in the evenings in the restaurant area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r439159975-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>439159975</t>
+  </si>
+  <si>
+    <t>11/21/2016</t>
+  </si>
+  <si>
+    <t>Friendly staff beautiful Hotel</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here when we went to a wedding at the Fall Center.  The Hotel was beautiful. This hotel is the new style for Courtyard.  The best part was the staff.  They were friendly and helpful and competent. .MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here when we went to a wedding at the Fall Center.  The Hotel was beautiful. This hotel is the new style for Courtyard.  The best part was the staff.  They were friendly and helpful and competent. .More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1413,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1445,2534 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>83</v>
+      </c>
+      <c r="X6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>91</v>
+      </c>
+      <c r="X7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>100</v>
+      </c>
+      <c r="X8" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>108</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>100</v>
+      </c>
+      <c r="X9" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" t="s">
+        <v>114</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>99</v>
+      </c>
+      <c r="O10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>115</v>
+      </c>
+      <c r="X10" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>123</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>115</v>
+      </c>
+      <c r="X11" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J12" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" t="s">
+        <v>129</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>130</v>
+      </c>
+      <c r="O12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>131</v>
+      </c>
+      <c r="X12" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" t="s">
+        <v>137</v>
+      </c>
+      <c r="L13" t="s">
+        <v>138</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>123</v>
+      </c>
+      <c r="O13" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>131</v>
+      </c>
+      <c r="X13" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>141</v>
+      </c>
+      <c r="J14" t="s">
+        <v>142</v>
+      </c>
+      <c r="K14" t="s">
+        <v>143</v>
+      </c>
+      <c r="L14" t="s">
+        <v>144</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>130</v>
+      </c>
+      <c r="O14" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>145</v>
+      </c>
+      <c r="X14" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>149</v>
+      </c>
+      <c r="J15" t="s">
+        <v>150</v>
+      </c>
+      <c r="K15" t="s">
+        <v>151</v>
+      </c>
+      <c r="L15" t="s">
+        <v>152</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>153</v>
+      </c>
+      <c r="O15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>145</v>
+      </c>
+      <c r="X15" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>155</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>156</v>
+      </c>
+      <c r="J16" t="s">
+        <v>157</v>
+      </c>
+      <c r="K16" t="s">
+        <v>158</v>
+      </c>
+      <c r="L16" t="s">
+        <v>159</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>153</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>145</v>
+      </c>
+      <c r="X16" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>162</v>
+      </c>
+      <c r="J17" t="s">
+        <v>163</v>
+      </c>
+      <c r="K17" t="s">
+        <v>164</v>
+      </c>
+      <c r="L17" t="s">
+        <v>165</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>166</v>
+      </c>
+      <c r="O17" t="s">
+        <v>82</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>167</v>
+      </c>
+      <c r="X17" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>170</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>171</v>
+      </c>
+      <c r="J18" t="s">
+        <v>172</v>
+      </c>
+      <c r="K18" t="s">
+        <v>173</v>
+      </c>
+      <c r="L18" t="s">
+        <v>174</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>166</v>
+      </c>
+      <c r="O18" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>175</v>
+      </c>
+      <c r="X18" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>178</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>179</v>
+      </c>
+      <c r="J19" t="s">
+        <v>180</v>
+      </c>
+      <c r="K19" t="s">
+        <v>181</v>
+      </c>
+      <c r="L19" t="s">
+        <v>182</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>166</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>183</v>
+      </c>
+      <c r="X19" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>186</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>187</v>
+      </c>
+      <c r="J20" t="s">
+        <v>188</v>
+      </c>
+      <c r="K20" t="s">
+        <v>189</v>
+      </c>
+      <c r="L20" t="s">
+        <v>190</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>191</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>192</v>
+      </c>
+      <c r="X20" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>195</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>196</v>
+      </c>
+      <c r="J21" t="s">
+        <v>188</v>
+      </c>
+      <c r="K21" t="s">
+        <v>197</v>
+      </c>
+      <c r="L21" t="s">
+        <v>198</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>191</v>
+      </c>
+      <c r="O21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>183</v>
+      </c>
+      <c r="X21" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>200</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>201</v>
+      </c>
+      <c r="J22" t="s">
+        <v>202</v>
+      </c>
+      <c r="K22" t="s">
+        <v>203</v>
+      </c>
+      <c r="L22" t="s">
+        <v>204</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>205</v>
+      </c>
+      <c r="O22" t="s">
+        <v>206</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>183</v>
+      </c>
+      <c r="X22" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>208</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>209</v>
+      </c>
+      <c r="J23" t="s">
+        <v>210</v>
+      </c>
+      <c r="K23" t="s">
+        <v>211</v>
+      </c>
+      <c r="L23" t="s">
+        <v>212</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>130</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>214</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>215</v>
+      </c>
+      <c r="J24" t="s">
+        <v>216</v>
+      </c>
+      <c r="K24" t="s">
+        <v>217</v>
+      </c>
+      <c r="L24" t="s">
+        <v>218</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>205</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>219</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>220</v>
+      </c>
+      <c r="J25" t="s">
+        <v>221</v>
+      </c>
+      <c r="K25" t="s">
+        <v>222</v>
+      </c>
+      <c r="L25" t="s">
+        <v>223</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>205</v>
+      </c>
+      <c r="O25" t="s">
+        <v>206</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>224</v>
+      </c>
+      <c r="X25" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>227</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>228</v>
+      </c>
+      <c r="J26" t="s">
+        <v>229</v>
+      </c>
+      <c r="K26" t="s">
+        <v>230</v>
+      </c>
+      <c r="L26" t="s">
+        <v>231</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>130</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>232</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>233</v>
+      </c>
+      <c r="J27" t="s">
+        <v>229</v>
+      </c>
+      <c r="K27" t="s">
+        <v>234</v>
+      </c>
+      <c r="L27" t="s">
+        <v>235</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>236</v>
+      </c>
+      <c r="O27" t="s">
+        <v>206</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>237</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>238</v>
+      </c>
+      <c r="J28" t="s">
+        <v>239</v>
+      </c>
+      <c r="K28" t="s">
+        <v>240</v>
+      </c>
+      <c r="L28" t="s">
+        <v>241</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>130</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>242</v>
+      </c>
+      <c r="X28" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>245</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>246</v>
+      </c>
+      <c r="J29" t="s">
+        <v>247</v>
+      </c>
+      <c r="K29" t="s">
+        <v>248</v>
+      </c>
+      <c r="L29" t="s">
+        <v>249</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>236</v>
+      </c>
+      <c r="O29" t="s">
+        <v>60</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>250</v>
+      </c>
+      <c r="X29" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>253</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>254</v>
+      </c>
+      <c r="J30" t="s">
+        <v>255</v>
+      </c>
+      <c r="K30" t="s">
+        <v>256</v>
+      </c>
+      <c r="L30" t="s">
+        <v>257</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>236</v>
+      </c>
+      <c r="O30" t="s">
+        <v>60</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>258</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>259</v>
+      </c>
+      <c r="J31" t="s">
+        <v>260</v>
+      </c>
+      <c r="K31" t="s">
+        <v>261</v>
+      </c>
+      <c r="L31" t="s">
+        <v>262</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>263</v>
+      </c>
+      <c r="X31" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>266</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>267</v>
+      </c>
+      <c r="J32" t="s">
+        <v>268</v>
+      </c>
+      <c r="K32" t="s">
+        <v>269</v>
+      </c>
+      <c r="L32" t="s">
+        <v>270</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>271</v>
+      </c>
+      <c r="O32" t="s">
+        <v>60</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>272</v>
+      </c>
+      <c r="X32" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>275</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>276</v>
+      </c>
+      <c r="J33" t="s">
+        <v>277</v>
+      </c>
+      <c r="K33" t="s">
+        <v>278</v>
+      </c>
+      <c r="L33" t="s">
+        <v>279</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>280</v>
+      </c>
+      <c r="O33" t="s">
+        <v>281</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>272</v>
+      </c>
+      <c r="X33" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>283</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>284</v>
+      </c>
+      <c r="J34" t="s">
+        <v>285</v>
+      </c>
+      <c r="K34" t="s">
+        <v>286</v>
+      </c>
+      <c r="L34" t="s">
+        <v>287</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>280</v>
+      </c>
+      <c r="O34" t="s">
+        <v>206</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>288</v>
+      </c>
+      <c r="X34" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>291</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>292</v>
+      </c>
+      <c r="J35" t="s">
+        <v>293</v>
+      </c>
+      <c r="K35" t="s">
+        <v>294</v>
+      </c>
+      <c r="L35" t="s">
+        <v>295</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>280</v>
+      </c>
+      <c r="O35" t="s">
+        <v>60</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>296</v>
+      </c>
+      <c r="X35" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>299</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>300</v>
+      </c>
+      <c r="J36" t="s">
+        <v>293</v>
+      </c>
+      <c r="K36" t="s">
+        <v>301</v>
+      </c>
+      <c r="L36" t="s">
+        <v>302</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>280</v>
+      </c>
+      <c r="O36" t="s">
+        <v>60</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>296</v>
+      </c>
+      <c r="X36" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>304</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>305</v>
+      </c>
+      <c r="J37" t="s">
+        <v>306</v>
+      </c>
+      <c r="K37" t="s">
+        <v>307</v>
+      </c>
+      <c r="L37" t="s">
+        <v>308</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>309</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>310</v>
+      </c>
+      <c r="X37" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>313</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>314</v>
+      </c>
+      <c r="J38" t="s">
+        <v>315</v>
+      </c>
+      <c r="K38" t="s">
+        <v>316</v>
+      </c>
+      <c r="L38" t="s">
+        <v>317</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>318</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>319</v>
+      </c>
+      <c r="X38" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>322</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>323</v>
+      </c>
+      <c r="J39" t="s">
+        <v>324</v>
+      </c>
+      <c r="K39" t="s">
+        <v>325</v>
+      </c>
+      <c r="L39" t="s">
+        <v>326</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>318</v>
+      </c>
+      <c r="O39" t="s">
+        <v>281</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>319</v>
+      </c>
+      <c r="X39" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>328</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>329</v>
+      </c>
+      <c r="J40" t="s">
+        <v>330</v>
+      </c>
+      <c r="K40" t="s">
+        <v>331</v>
+      </c>
+      <c r="L40" t="s">
+        <v>332</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>318</v>
+      </c>
+      <c r="O40" t="s">
+        <v>82</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>319</v>
+      </c>
+      <c r="X40" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_41.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_41.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="524">
   <si>
     <t>STR#</t>
   </si>
@@ -150,18 +150,105 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/01/2018</t>
+    <t>08/30/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r607392191-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>33524</t>
+  </si>
+  <si>
+    <t>10627948</t>
+  </si>
+  <si>
+    <t>607392191</t>
+  </si>
+  <si>
+    <t>08/17/2018</t>
+  </si>
+  <si>
+    <t>Excellent Hotel in Littleton Co.</t>
+  </si>
+  <si>
+    <t>Stayed for the 1st time at the Courtyard by Marriott Denver Southwest/Littleton.  Overall, this property was one of the best I have stayed in recently.  Staff provided excellent service, rooms and common areas were clean, Fitness center was sized right and provided for good workouts cardio and weight.  Highly recommend this property.   Front desk folks were the best and went out of their way to personalize the visit to all the guests.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>wesleybean2016, General Manager at Courtyard by Marriott Denver Southwest / Littleton, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>Stayed for the 1st time at the Courtyard by Marriott Denver Southwest/Littleton.  Overall, this property was one of the best I have stayed in recently.  Staff provided excellent service, rooms and common areas were clean, Fitness center was sized right and provided for good workouts cardio and weight.  Highly recommend this property.   Front desk folks were the best and went out of their way to personalize the visit to all the guests.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r600875231-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>600875231</t>
+  </si>
+  <si>
+    <t>07/29/2018</t>
+  </si>
+  <si>
+    <t>Beautiful as always</t>
+  </si>
+  <si>
+    <t>Have stayed here several times since hotel opened.  Still looks brand new.  Room and bathroom were immaculate.  Great Bistro for breakfast and dinner.  Our go to hotel in this area for sure. Have tried other hotels in area but they just don’t compare.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>wesleybean2016, General Manager at Courtyard by Marriott Denver Southwest / Littleton, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Have stayed here several times since hotel opened.  Still looks brand new.  Room and bathroom were immaculate.  Great Bistro for breakfast and dinner.  Our go to hotel in this area for sure. Have tried other hotels in area but they just don’t compare.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r596291971-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>596291971</t>
+  </si>
+  <si>
+    <t>07/15/2018</t>
+  </si>
+  <si>
+    <t>Absolutely Awesome!</t>
+  </si>
+  <si>
+    <t>I was totally impressed with this hotel!  Staff was super friendly and the rooms were spotless.  Only thing I hated was the traffic on Santa Fe was horrible even during non rush hour.  Certainly not the hotel's fault!  One last thing, get there early or you may have issues with parking if you get in after 10PM!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>wesleybean2016, General Manager at Courtyard by Marriott Denver Southwest / Littleton, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>I was totally impressed with this hotel!  Staff was super friendly and the rooms were spotless.  Only thing I hated was the traffic on Santa Fe was horrible even during non rush hour.  Certainly not the hotel's fault!  One last thing, get there early or you may have issues with parking if you get in after 10PM!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r586468175-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
   </si>
   <si>
-    <t>33524</t>
-  </si>
-  <si>
-    <t>10627948</t>
-  </si>
-  <si>
     <t>586468175</t>
   </si>
   <si>
@@ -177,9 +264,6 @@
     <t>June 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Stay June 1-3rd, 2018 in room 322.  The location is good and close to the freeways.  Nothing really in walking distance but with a car there is plenty of places to go eat or shop or take in the Denver activities.  Always lots to do in Denver.  The hotel was new and clean and well maintained.  Lots of free parking.  The room was up to date, roomy for 3 people, and had a nice big bathroom.  Having a microwave and small fridge was perfect for leftovers and to keep drinks cold.  The tv was a good size to watch from both beds.  The beds were so comfortable and soft.  The only thing I did not like was that you can hear the water running thru the pipes/walls constantly from other rooms.  So every time they were taking a shower or flushing the toilet.  Not sure if it is that way in all rooms but in this room it was definitely noticeable the entire time.  I didn't hear people other than the ones right next door.  I could hear their door or them talking when they came and went.  Other than that the noise level was ok.   The rest of the stay was great and I would recommend this hotel.  The indoor pool was small but it worked out great.  The little gym was perfect with the equipment to get a work out done.  The breakfast was for a fee so...Stay June 1-3rd, 2018 in room 322.  The location is good and close to the freeways.  Nothing really in walking distance but with a car there is plenty of places to go eat or shop or take in the Denver activities.  Always lots to do in Denver.  The hotel was new and clean and well maintained.  Lots of free parking.  The room was up to date, roomy for 3 people, and had a nice big bathroom.  Having a microwave and small fridge was perfect for leftovers and to keep drinks cold.  The tv was a good size to watch from both beds.  The beds were so comfortable and soft.  The only thing I did not like was that you can hear the water running thru the pipes/walls constantly from other rooms.  So every time they were taking a shower or flushing the toilet.  Not sure if it is that way in all rooms but in this room it was definitely noticeable the entire time.  I didn't hear people other than the ones right next door.  I could hear their door or them talking when they came and went.  Other than that the noise level was ok.   The rest of the stay was great and I would recommend this hotel.  The indoor pool was small but it worked out great.  The little gym was perfect with the equipment to get a work out done.  The breakfast was for a fee so we did not purchase food.  All the people we interacted with were friendly and professional.  The check in and check out was a breeze.  This place was perfect for where we needed to be daily and in the area we wanted to stay in.More</t>
   </si>
   <si>
@@ -198,9 +282,6 @@
     <t>I stayed for 2 nights in a King room on the 3rd floor. The hotel is over a year young and still has the good, new smell. Everything looked and was clean and well maintained. The bedroom and the bathroom were large and tastefully decorated. The bed was comfortable, there was plenty of desk space, plenty of power outlets everywhere, and a large  couch with an ottoman. The TV had a large selection of premium HD channels. The walk-in shower was very large so that you could turn it on and set the water temperature before getting wet. There were three sets of towels, more than plenty. My rate included breakfast which is served from a counter (not a buffet) and was freshly prepared. The café serves Starbucks espresso drinks. I also had a light dinner one night, which was good and reasonably priced. MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>I stayed for 2 nights in a King room on the 3rd floor. The hotel is over a year young and still has the good, new smell. Everything looked and was clean and well maintained. The bedroom and the bathroom were large and tastefully decorated. The bed was comfortable, there was plenty of desk space, plenty of power outlets everywhere, and a large  couch with an ottoman. The TV had a large selection of premium HD channels. The walk-in shower was very large so that you could turn it on and set the water temperature before getting wet. There were three sets of towels, more than plenty. My rate included breakfast which is served from a counter (not a buffet) and was freshly prepared. The café serves Starbucks espresso drinks. I also had a light dinner one night, which was good and reasonably priced. More</t>
   </si>
   <si>
@@ -216,33 +297,75 @@
     <t>Home away from home</t>
   </si>
   <si>
-    <t>The staff and the property never disappoint me.  It is always refreshing to return to this property for business as I am always greeted with a smile and warm welcome.  The staff genuinely care about their customers.</t>
+    <t>The staff and the property never disappoint me.  It is always refreshing to return to this property for business as I am always greeted with a smile and warm welcome.  The staff genuinely care about their customers.MoreShow less</t>
   </si>
   <si>
     <t>May 2018</t>
   </si>
   <si>
+    <t>The staff and the property never disappoint me.  It is always refreshing to return to this property for business as I am always greeted with a smile and warm welcome.  The staff genuinely care about their customers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r580612276-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>580612276</t>
+  </si>
+  <si>
+    <t>05/16/2018</t>
+  </si>
+  <si>
+    <t>Excellent customer service</t>
+  </si>
+  <si>
+    <t>I had a very pleasant experience with this property as it was in good repair and clean.  The most notable aspect that made the stay excellent was the customer service.  All the personnel I had contact with were very helpful and courteous.  A special shout out to Jordan who ran the Starbucks counter in the mornings.  She greeted all the customers with a smile and a genuine pleasantness that really was nice to see.MoreShow less</t>
+  </si>
+  <si>
+    <t>wesleybean2016, General Manager at Courtyard by Marriott Denver Southwest / Littleton, responded to this reviewResponded May 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2018</t>
+  </si>
+  <si>
+    <t>I had a very pleasant experience with this property as it was in good repair and clean.  The most notable aspect that made the stay excellent was the customer service.  All the personnel I had contact with were very helpful and courteous.  A special shout out to Jordan who ran the Starbucks counter in the mornings.  She greeted all the customers with a smile and a genuine pleasantness that really was nice to see.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r579746536-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>579746536</t>
+  </si>
+  <si>
+    <t>05/12/2018</t>
+  </si>
+  <si>
+    <t>Nice new Courtyard, new design!</t>
+  </si>
+  <si>
+    <t>This hotel is well worth considering. It's located in southwest Denver metro in Littleton, at the interchange of C470 (ring road around metro) and Santa Fe Dr, so access is very good. The hotel is located in a newly developing area (I'm from Denver originally) including other hotels, new apartments and a few restaurants. It's a safe area, relatively quiet and great views of the Front Range.
+The hotel presents well from outside, the lobby is very nice, a refined layout you'll see in newer hotels. The check-in counter is no longer a long typical layout, but rather individual podiums, saving space and much more aesthetic. There's plenty of meeting and casual siting areas, for casual interaction or even business discussions with small groups.
+The room I stayed in was Room 414 (fourth floor facing Residence Inn across the street to the north) and was a King with a Queen fold out, just what I needed. Rather than a square or rectangle room, it's basically a flagpole design. Enter the room, continue down a "hallway" for about ten feet, bathroom on the left, then the bed and living area opens to the left after the bathroom. Great design, all new furnishings, nice features. Contains a small fridge, microwave, coffee maker, AC/heat, large tv with cable and Netflix et al.
+There's much more to mention, but gotta leave for a get together. Give the place a try, the price was right...This hotel is well worth considering. It's located in southwest Denver metro in Littleton, at the interchange of C470 (ring road around metro) and Santa Fe Dr, so access is very good. The hotel is located in a newly developing area (I'm from Denver originally) including other hotels, new apartments and a few restaurants. It's a safe area, relatively quiet and great views of the Front Range.The hotel presents well from outside, the lobby is very nice, a refined layout you'll see in newer hotels. The check-in counter is no longer a long typical layout, but rather individual podiums, saving space and much more aesthetic. There's plenty of meeting and casual siting areas, for casual interaction or even business discussions with small groups.The room I stayed in was Room 414 (fourth floor facing Residence Inn across the street to the north) and was a King with a Queen fold out, just what I needed. Rather than a square or rectangle room, it's basically a flagpole design. Enter the room, continue down a "hallway" for about ten feet, bathroom on the left, then the bed and living area opens to the left after the bathroom. Great design, all new furnishings, nice features. Contains a small fridge, microwave, coffee maker, AC/heat, large tv with cable and Netflix et al.There's much more to mention, but gotta leave for a get together. Give the place a try, the price was right $103 first two nights, $88 the last night (Sat).MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is well worth considering. It's located in southwest Denver metro in Littleton, at the interchange of C470 (ring road around metro) and Santa Fe Dr, so access is very good. The hotel is located in a newly developing area (I'm from Denver originally) including other hotels, new apartments and a few restaurants. It's a safe area, relatively quiet and great views of the Front Range.
+The hotel presents well from outside, the lobby is very nice, a refined layout you'll see in newer hotels. The check-in counter is no longer a long typical layout, but rather individual podiums, saving space and much more aesthetic. There's plenty of meeting and casual siting areas, for casual interaction or even business discussions with small groups.
+The room I stayed in was Room 414 (fourth floor facing Residence Inn across the street to the north) and was a King with a Queen fold out, just what I needed. Rather than a square or rectangle room, it's basically a flagpole design. Enter the room, continue down a "hallway" for about ten feet, bathroom on the left, then the bed and living area opens to the left after the bathroom. Great design, all new furnishings, nice features. Contains a small fridge, microwave, coffee maker, AC/heat, large tv with cable and Netflix et al.
+There's much more to mention, but gotta leave for a get together. Give the place a try, the price was right...This hotel is well worth considering. It's located in southwest Denver metro in Littleton, at the interchange of C470 (ring road around metro) and Santa Fe Dr, so access is very good. The hotel is located in a newly developing area (I'm from Denver originally) including other hotels, new apartments and a few restaurants. It's a safe area, relatively quiet and great views of the Front Range.The hotel presents well from outside, the lobby is very nice, a refined layout you'll see in newer hotels. The check-in counter is no longer a long typical layout, but rather individual podiums, saving space and much more aesthetic. There's plenty of meeting and casual siting areas, for casual interaction or even business discussions with small groups.The room I stayed in was Room 414 (fourth floor facing Residence Inn across the street to the north) and was a King with a Queen fold out, just what I needed. Rather than a square or rectangle room, it's basically a flagpole design. Enter the room, continue down a "hallway" for about ten feet, bathroom on the left, then the bed and living area opens to the left after the bathroom. Great design, all new furnishings, nice features. Contains a small fridge, microwave, coffee maker, AC/heat, large tv with cable and Netflix et al.There's much more to mention, but gotta leave for a get together. Give the place a try, the price was right $103 first two nights, $88 the last night (Sat).More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r579744754-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
   </si>
   <si>
     <t>579744754</t>
   </si>
   <si>
-    <t>05/12/2018</t>
-  </si>
-  <si>
     <t>Nice clean facility with helpful staff!</t>
   </si>
   <si>
     <t>Stayed here for a couple of nights on a business trip. The facility is next to Marriott Residence Inn. Good quality hotel that is reasonably priced. Has all the business amenities like wifi, work desks etc. the rooms are spacious and clean. The front desk is helpful and service is pleasant. MoreShow less</t>
   </si>
   <si>
-    <t>wesleybean2016, General Manager at Courtyard by Marriott Denver Southwest / Littleton, responded to this reviewResponded May 17, 2018</t>
-  </si>
-  <si>
-    <t>Responded May 17, 2018</t>
-  </si>
-  <si>
     <t>Stayed here for a couple of nights on a business trip. The facility is next to Marriott Residence Inn. Good quality hotel that is reasonably priced. Has all the business amenities like wifi, work desks etc. the rooms are spacious and clean. The front desk is helpful and service is pleasant. More</t>
   </si>
   <si>
@@ -264,9 +387,6 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>wesleybean2016, General Manager at Courtyard by Marriott Denver Southwest / Littleton, responded to this reviewResponded April 2, 2018</t>
   </si>
   <si>
@@ -300,6 +420,51 @@
     <t>What a pleasant surprise!  Really nice welcoming people.  The staff all work together as a team and in such a nice way!  I would HIGHLY recommend this hotel.Breakfast prices are reasonable too.  My oatmeal was $6.50 which included a ton of extras.  Room cost is about $100 a night.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r560149738-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>560149738</t>
+  </si>
+  <si>
+    <t>02/12/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent staff , great property </t>
+  </si>
+  <si>
+    <t>Stayed here several times.  I always am made to feel like family . Paige and Dani were so accommodating and kind - keep up the great work !  Fairly new property , modern rooms and great bar and breakfast.  Makes a weary sales traveler feel at home. MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here several times.  I always am made to feel like family . Paige and Dani were so accommodating and kind - keep up the great work !  Fairly new property , modern rooms and great bar and breakfast.  Makes a weary sales traveler feel at home. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r556690279-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>556690279</t>
+  </si>
+  <si>
+    <t>01/27/2018</t>
+  </si>
+  <si>
+    <t>out of the box service</t>
+  </si>
+  <si>
+    <t>The reason i am writing you is that after a long  day of travel from Key West, FL, and checking in i was hungry and Paige Parr, at your front desk recommended a nice brewery to eat at and called a cab for me and warned they weren't very efficient , and they weren't. I waited for 30 minutes and Paige called without me asking to follow up, then after another 20 minutes she came and offered to drive me herself, which she did.I want her recognized for her unbelievable service and would like a follow up on that recognition.Regards,Grant RolandMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>wesleybean2016, General Manager at Courtyard by Marriott Denver Southwest / Littleton, responded to this reviewResponded January 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 29, 2018</t>
+  </si>
+  <si>
+    <t>The reason i am writing you is that after a long  day of travel from Key West, FL, and checking in i was hungry and Paige Parr, at your front desk recommended a nice brewery to eat at and called a cab for me and warned they weren't very efficient , and they weren't. I waited for 30 minutes and Paige called without me asking to follow up, then after another 20 minutes she came and offered to drive me herself, which she did.I want her recognized for her unbelievable service and would like a follow up on that recognition.Regards,Grant RolandMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r556215758-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
   </si>
   <si>
@@ -313,9 +478,6 @@
   </si>
   <si>
     <t>After a long flight, I arrived at the hotel only to find out it was booked with many issues (such as the breakfast was missing). Rather than simply ignoring me (like most hotel staff will do), front desk person - PAGE - simply took it upon herself and resolved all issues so quickly and efficiently.  This is the true saying of someone bending over backward to help their customers out. I am so impressed and I will ALWAYS stay in this hotel ever time I travel to Littleton - a ton! I have literally stayed in most hotels within the 5 mile perimeters from $130 Airbnb to highend hotels since I am here a lot - but this experience definitely buys my loyalty!!! Page has truly demonstrated what a good customer service is about. So, Marriott no longer needs to spend tons of menpower and money on marketing - they got in in 30 minutes of simple and basic customer experience.MoreShow less</t>
-  </si>
-  <si>
-    <t>January 2018</t>
   </si>
   <si>
     <t>wesleybean2016, General Manager at Courtyard by Marriott Denver Southwest / Littleton, responded to this reviewResponded January 26, 2018</t>
@@ -374,6 +536,42 @@
 I did have one experience that soured my experience with the GM (Wes) and has prompted me to book my next two weeks at a different hotel. The last three mornings of  my stay Wes was  working the bistro counter. Wes took my order at 6:30 in the bistro and as I had done every other day marked on the card that I would pick up the meal to go at 7:45 on my way out to work. At 5 min to 7 I got a call from the assistant GM (?Laura) as I was about to get in the shower, explaining that my breakfast was ready. I told her I had specifically requested pickup at 7:45 and was not ready to leave. She explained they had a banquet to prepare for and were busy so they went ahead and made it. I arrived at the bistro where I was pleasantly greeted by the staff and they handed me the meal I had ordered that had been sitting on the counter for close to 50 minutes. I asked her to throw it away...Ive spent 20 Nights at this location between Dec 2017/Jan2018. This last stay of 12 nights was exceptional. A huge thank you to the staff (Dani, Paige, Alyssa, Jordan, and Ciara) that always greeted me with a smile and made long out of town stays excellent with delicious food, and great recommendations for hiking on my weekend. I did have one experience that soured my experience with the GM (Wes) and has prompted me to book my next two weeks at a different hotel. The last three mornings of  my stay Wes was  working the bistro counter. Wes took my order at 6:30 in the bistro and as I had done every other day marked on the card that I would pick up the meal to go at 7:45 on my way out to work. At 5 min to 7 I got a call from the assistant GM (?Laura) as I was about to get in the shower, explaining that my breakfast was ready. I told her I had specifically requested pickup at 7:45 and was not ready to leave. She explained they had a banquet to prepare for and were busy so they went ahead and made it. I arrived at the bistro where I was pleasantly greeted by the staff and they handed me the meal I had ordered that had been sitting on the counter for close to 50 minutes. I asked her to throw it away as I didn't want to get sick. She went  out of her way to replace it with a bagel and fruit I wouldn't have to wait on. I stopped Wes and explained that it was very poor food handling to treat his guests this way and verified that their bistro breakfast hours were from 6:30 -10:30. I don't believe any restaurant would let food stand that long and expect to serve it. He tried to transfer the blame twice on his employees despite the fact it was very clear to me he was closely managing the kitchen and the banquet event. He also reiterated the words of his asst. GM claiming they were too busy. So unfortunately Wes both lost my respect for not taking responsibility and trying to transfer the blame on his employees, and my business because he was "too busy" to serve me food that hadn't been sitting on the counter for an hour. Customers don't like being told you are too busy to help them.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r553444562-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>553444562</t>
+  </si>
+  <si>
+    <t>01/12/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A nice fairly new courtyard property. </t>
+  </si>
+  <si>
+    <t>This property is easy to find, grouped with another Marriott property. The staff is excellent!Love the fitness room.The only negative is if you stay on a higher floor on the freeway side, you will hear traffic. Hot showers great TV MoreShow less</t>
+  </si>
+  <si>
+    <t>This property is easy to find, grouped with another Marriott property. The staff is excellent!Love the fitness room.The only negative is if you stay on a higher floor on the freeway side, you will hear traffic. Hot showers great TV More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r546732441-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>546732441</t>
+  </si>
+  <si>
+    <t>12/11/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel south of Denver</t>
+  </si>
+  <si>
+    <t>Brand New Hotel south of Denver and close to Aspen Grove shopping center and Alamo movie theater. Rooms are very clean and restaurant is great for a quick breakfast and light dinner. The staff are very helpful and will treat you with great customer service. Will definitely stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Brand New Hotel south of Denver and close to Aspen Grove shopping center and Alamo movie theater. Rooms are very clean and restaurant is great for a quick breakfast and light dinner. The staff are very helpful and will treat you with great customer service. Will definitely stay there again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r542629504-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
   </si>
   <si>
@@ -440,6 +638,51 @@
     <t>This hotel is just one year old, so everything still has that “new car” feel about it.  The staff were so friendly and helpful.  I’ll stay here again when I’m back. The food and restaurant/bar is the same format as all the other Courtyards.  But it’s more than adequate for any length of stay.  More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r539433051-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>539433051</t>
+  </si>
+  <si>
+    <t>11/08/2017</t>
+  </si>
+  <si>
+    <t>Brand new modern hotel</t>
+  </si>
+  <si>
+    <t>New trumps just about everything for me!  Free internet.  Large bathroom with a huge shower.  Great beds and pillows.  Again, new is best.  Plenty of TV channels - much more than a regular Marriott.  Also, you can use your Netflix or Hulu on the TV.  Had a nice breakfast sandwich at the Bistro.  They have a pool and workout room but we didn't use it.  Very friendly and helpful staff.  Really close the the Platte River trail if you want to take a walk or go for a bike ride.  Chatfield Lake is very close too.MoreShow less</t>
+  </si>
+  <si>
+    <t>New trumps just about everything for me!  Free internet.  Large bathroom with a huge shower.  Great beds and pillows.  Again, new is best.  Plenty of TV channels - much more than a regular Marriott.  Also, you can use your Netflix or Hulu on the TV.  Had a nice breakfast sandwich at the Bistro.  They have a pool and workout room but we didn't use it.  Very friendly and helpful staff.  Really close the the Platte River trail if you want to take a walk or go for a bike ride.  Chatfield Lake is very close too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r526780841-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>526780841</t>
+  </si>
+  <si>
+    <t>09/23/2017</t>
+  </si>
+  <si>
+    <t>New and Good</t>
+  </si>
+  <si>
+    <t>After a disappointing stay at another Courtyard we were very pleased by this one in Littleton.  Newly build, It had so many well thought details that many of the older ones don't have: Space for two suitcases, a silent refrigerator, reading lamps at bedsides that are bright enough, enough hooks in bathroom etc. etc. The room and even the window was perfectly clean. Only minus point (which is true for all Courtyards) is Starbucks for breakfast.  The moment it got busy the staff wasn't able to properly handle all orders, which ended in a chaotic situation. I would love to have coffee all day long in a corner and a breakfast buffet in the morning.  During the day there is no coffee available which is just poor service.  But again: That's obviously a central decision of Marriott.  MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>wesleybean2016, General Manager at Courtyard by Marriott Denver Southwest / Littleton, responded to this reviewResponded September 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 26, 2017</t>
+  </si>
+  <si>
+    <t>After a disappointing stay at another Courtyard we were very pleased by this one in Littleton.  Newly build, It had so many well thought details that many of the older ones don't have: Space for two suitcases, a silent refrigerator, reading lamps at bedsides that are bright enough, enough hooks in bathroom etc. etc. The room and even the window was perfectly clean. Only minus point (which is true for all Courtyards) is Starbucks for breakfast.  The moment it got busy the staff wasn't able to properly handle all orders, which ended in a chaotic situation. I would love to have coffee all day long in a corner and a breakfast buffet in the morning.  During the day there is no coffee available which is just poor service.  But again: That's obviously a central decision of Marriott.  More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r524941253-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
   </si>
   <si>
@@ -455,12 +698,6 @@
     <t>I was here on a conference. It's a very nice hotel, located close to many businesses. The hotel staff was nice and very courteous. The hotel has a lot of parking space. It is a little ways out from the airport but traffic wasn't too bad. I had no complaints or issues during my stay at this hotel.MoreShow less</t>
   </si>
   <si>
-    <t>wesleybean2016, General Manager at Courtyard by Marriott Denver Southwest / Littleton, responded to this reviewResponded September 26, 2017</t>
-  </si>
-  <si>
-    <t>Responded September 26, 2017</t>
-  </si>
-  <si>
     <t>I was here on a conference. It's a very nice hotel, located close to many businesses. The hotel staff was nice and very courteous. The hotel has a lot of parking space. It is a little ways out from the airport but traffic wasn't too bad. I had no complaints or issues during my stay at this hotel.More</t>
   </si>
   <si>
@@ -479,9 +716,6 @@
     <t>Stayed here as I was passing through Denver. It was much more affordable than the Marriott locations deeper in the city. I was impressed with how new everything was and the cleanliness of the hotel. Rooms were very well styled. Easy highway access for people driving through. Yes, there is construction on one side of the hotel and a major highway on the other, but I couldn't hear the traffic or construction during my stay. The people were very friendly and the check-in/out was seamless.MoreShow less</t>
   </si>
   <si>
-    <t>September 2017</t>
-  </si>
-  <si>
     <t>Stayed here as I was passing through Denver. It was much more affordable than the Marriott locations deeper in the city. I was impressed with how new everything was and the cleanliness of the hotel. Rooms were very well styled. Easy highway access for people driving through. Yes, there is construction on one side of the hotel and a major highway on the other, but I couldn't hear the traffic or construction during my stay. The people were very friendly and the check-in/out was seamless.More</t>
   </si>
   <si>
@@ -503,6 +737,60 @@
     <t>Very clean and nice.  Hotel was built about a year ago so everything is in great condition.  I loved that they have streaming services like Netflix built in to their tv system making it easy to watch your favorite shows on the room tv instead of your portable device.  My only complaint is that there is no door on the fancy glass shower in our King room.  This meant things got a bit drafty and the floor got wet.  I've been at another similarly new hotel in this chain and they did have a door, I preferred that very much and it was still very stylish.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r523272634-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>523272634</t>
+  </si>
+  <si>
+    <t>09/10/2017</t>
+  </si>
+  <si>
+    <t>Disappointing, Really Wanted to Like It</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here with our 3-month old while visiting family in the area over Thanksgiving. We really wanted to like this hotel, but sadly, it falls short on a number of fronts. 
+The good:
+1. Nice design. The hotel is only 6-weeks old. The furnishings and design are nice. The lobby common area is inviting and nicely done. 
+2. Service. The people at the front desk are among the nicest people we've ever met in a hotel. 
+The bad:
+1. POOR quality of materials and workmanship. It's clear that cost was more important than quality when this building was built. Walls are clearly not straight. Wallpaper is bubbling. The shower enclosure in our room is wavy/bubbly as though it was installed by someone with no experience. As a previous reviewer pointed out, the shower design is HORRIBLE, as it is impossible to avoid soaking the bathroom floor while taking a shower. The floor of the shower is made of plastic....feels like something from a Motel 6. Walls are thin, allowing plenty of noise transmission between rooms (sorry to it neighbors who must have felt as though our 3-month old was in their room...). 
+2. Bad bed linens. The comforter is not inside any sort of duvet. It's impossible to sleep in the bed and not end up with the raw-unprotected comforter touching your skin, as there's only a single sheet underneath and on top of the comforter...My wife and I stayed here with our 3-month old while visiting family in the area over Thanksgiving. We really wanted to like this hotel, but sadly, it falls short on a number of fronts. The good:1. Nice design. The hotel is only 6-weeks old. The furnishings and design are nice. The lobby common area is inviting and nicely done. 2. Service. The people at the front desk are among the nicest people we've ever met in a hotel. The bad:1. POOR quality of materials and workmanship. It's clear that cost was more important than quality when this building was built. Walls are clearly not straight. Wallpaper is bubbling. The shower enclosure in our room is wavy/bubbly as though it was installed by someone with no experience. As a previous reviewer pointed out, the shower design is HORRIBLE, as it is impossible to avoid soaking the bathroom floor while taking a shower. The floor of the shower is made of plastic....feels like something from a Motel 6. Walls are thin, allowing plenty of noise transmission between rooms (sorry to it neighbors who must have felt as though our 3-month old was in their room...). 2. Bad bed linens. The comforter is not inside any sort of duvet. It's impossible to sleep in the bed and not end up with the raw-unprotected comforter touching your skin, as there's only a single sheet underneath and on top of the comforter that invariably fall off the comforter while you sleep. This means that your sleeping with a comforter that doesn't get washed between every guest visit......glad only 6-weeks worth of other guests slept in our bed! The hotel really needs new bed linens that will protect each guest from prior guests.3. The bistro is obscenely expensive. I ordered two glasses of wine, which were expensive even by San Francisco standards. The young woman working the bistro counter had never opened a bottle of wine before. She struggled with the bottle opener, then asked if I knew how to do it.....odd experience for a Marriott hotel.4. The first room we checked into had a filthy bathroom. It looked as though someone had thrown up, and chunks had splattered on the walls and had not been cleaned off. The staff was equally horrified when they saw it and quickly changed rooms for us.MoreShow less</t>
+  </si>
+  <si>
+    <t>wesleybean2016, General Manager at Courtyard by Marriott Denver Southwest / Littleton, responded to this reviewResponded September 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2017</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here with our 3-month old while visiting family in the area over Thanksgiving. We really wanted to like this hotel, but sadly, it falls short on a number of fronts. 
+The good:
+1. Nice design. The hotel is only 6-weeks old. The furnishings and design are nice. The lobby common area is inviting and nicely done. 
+2. Service. The people at the front desk are among the nicest people we've ever met in a hotel. 
+The bad:
+1. POOR quality of materials and workmanship. It's clear that cost was more important than quality when this building was built. Walls are clearly not straight. Wallpaper is bubbling. The shower enclosure in our room is wavy/bubbly as though it was installed by someone with no experience. As a previous reviewer pointed out, the shower design is HORRIBLE, as it is impossible to avoid soaking the bathroom floor while taking a shower. The floor of the shower is made of plastic....feels like something from a Motel 6. Walls are thin, allowing plenty of noise transmission between rooms (sorry to it neighbors who must have felt as though our 3-month old was in their room...). 
+2. Bad bed linens. The comforter is not inside any sort of duvet. It's impossible to sleep in the bed and not end up with the raw-unprotected comforter touching your skin, as there's only a single sheet underneath and on top of the comforter...My wife and I stayed here with our 3-month old while visiting family in the area over Thanksgiving. We really wanted to like this hotel, but sadly, it falls short on a number of fronts. The good:1. Nice design. The hotel is only 6-weeks old. The furnishings and design are nice. The lobby common area is inviting and nicely done. 2. Service. The people at the front desk are among the nicest people we've ever met in a hotel. The bad:1. POOR quality of materials and workmanship. It's clear that cost was more important than quality when this building was built. Walls are clearly not straight. Wallpaper is bubbling. The shower enclosure in our room is wavy/bubbly as though it was installed by someone with no experience. As a previous reviewer pointed out, the shower design is HORRIBLE, as it is impossible to avoid soaking the bathroom floor while taking a shower. The floor of the shower is made of plastic....feels like something from a Motel 6. Walls are thin, allowing plenty of noise transmission between rooms (sorry to it neighbors who must have felt as though our 3-month old was in their room...). 2. Bad bed linens. The comforter is not inside any sort of duvet. It's impossible to sleep in the bed and not end up with the raw-unprotected comforter touching your skin, as there's only a single sheet underneath and on top of the comforter that invariably fall off the comforter while you sleep. This means that your sleeping with a comforter that doesn't get washed between every guest visit......glad only 6-weeks worth of other guests slept in our bed! The hotel really needs new bed linens that will protect each guest from prior guests.3. The bistro is obscenely expensive. I ordered two glasses of wine, which were expensive even by San Francisco standards. The young woman working the bistro counter had never opened a bottle of wine before. She struggled with the bottle opener, then asked if I knew how to do it.....odd experience for a Marriott hotel.4. The first room we checked into had a filthy bathroom. It looked as though someone had thrown up, and chunks had splattered on the walls and had not been cleaned off. The staff was equally horrified when they saw it and quickly changed rooms for us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r522602348-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>522602348</t>
+  </si>
+  <si>
+    <t>09/08/2017</t>
+  </si>
+  <si>
+    <t>Great place!</t>
+  </si>
+  <si>
+    <t>We really enjoyed our stay in Littleton.  It was close to everything.  The best part of our stay were the people at Marriot.  Everyone was very helpful and friendly.  The front desk, girls at the Bistro, management, grounds keepers and house keepers. Nice, new and modern.MoreShow less</t>
+  </si>
+  <si>
+    <t>We really enjoyed our stay in Littleton.  It was close to everything.  The best part of our stay were the people at Marriot.  Everyone was very helpful and friendly.  The front desk, girls at the Bistro, management, grounds keepers and house keepers. Nice, new and modern.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r520594784-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
   </si>
   <si>
@@ -578,6 +866,57 @@
     <t>Glad to have this new hotel here in Littleton, we stayed recently and everyone enjoyed ourselves.  The staff was very helpful and friendly, and we were able to rent the bar area for a private reception.   The rooms were nice and contemporary, I especially liked the couch with ottoman footstool to relax in.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r507631310-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>507631310</t>
+  </si>
+  <si>
+    <t>07/31/2017</t>
+  </si>
+  <si>
+    <t>Clean room, professional staff</t>
+  </si>
+  <si>
+    <t>After 14 hour drive, a stop at another hotel that had bugs....I decided to look for a Marriott. Found this one. Brand new, modern, clean! Two front desk girls (sorry I can't remember their names) were very friendly, understanding and professional. I asked for bedding to be changed out and she brought it up right away.Thx!MoreShow less</t>
+  </si>
+  <si>
+    <t>After 14 hour drive, a stop at another hotel that had bugs....I decided to look for a Marriott. Found this one. Brand new, modern, clean! Two front desk girls (sorry I can't remember their names) were very friendly, understanding and professional. I asked for bedding to be changed out and she brought it up right away.Thx!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r507276901-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>507276901</t>
+  </si>
+  <si>
+    <t>07/30/2017</t>
+  </si>
+  <si>
+    <t>No, Not What I Would Expect of a Marriott</t>
+  </si>
+  <si>
+    <t>Not up to Marriott standards:
+1) The mattress was totally dented in on the side where most hotel guests in that room have slept.  We got a room with a king sized bed, so I'm guessing that room is frequently booked by single patrons and they all sleep on the same side of the bed.  No hotel room, especially a Marriott should have a mattress so worn out that it's obviously very used.
+2) Cleanliness- There was an old piece of leftover pizza crust under the sink, behind the waste basket.  There is a photo attached.  I don't mean to fault the cleaning staff for this since I'm pretty sure they probably never saw it.  It was easy to miss.  I have no idea how long the pizza crust had been there, and chances are it's probably still there (seriously).  I was too grossed out to pick it up myself.  Because I'm celiac My husband and I did not order pizza during our stay, so for a fact it's not ours.
+3) Refrigerator did not work.  Sadly my husband and I discovered this at the end of our stay.  We ate out at some nice restaurants in Denver and brought our leftovers back to the room and put them in the refrigerator without even thinking about it.  Two days later as we were packing to leave I pulled the leftovers out and realized they were not cold at all.  The...Not up to Marriott standards:1) The mattress was totally dented in on the side where most hotel guests in that room have slept.  We got a room with a king sized bed, so I'm guessing that room is frequently booked by single patrons and they all sleep on the same side of the bed.  No hotel room, especially a Marriott should have a mattress so worn out that it's obviously very used.2) Cleanliness- There was an old piece of leftover pizza crust under the sink, behind the waste basket.  There is a photo attached.  I don't mean to fault the cleaning staff for this since I'm pretty sure they probably never saw it.  It was easy to miss.  I have no idea how long the pizza crust had been there, and chances are it's probably still there (seriously).  I was too grossed out to pick it up myself.  Because I'm celiac My husband and I did not order pizza during our stay, so for a fact it's not ours.3) Refrigerator did not work.  Sadly my husband and I discovered this at the end of our stay.  We ate out at some nice restaurants in Denver and brought our leftovers back to the room and put them in the refrigerator without even thinking about it.  Two days later as we were packing to leave I pulled the leftovers out and realized they were not cold at all.  The refrigerator had not been operating at all and our food spoiled.  My husband told the front desk staff about it as we were leaving and they just looked at us and said "sorry", while continuing to check in incoming hotel guests.  My experience at this Marriott has me feeling a little soured on the company despite being a rewards member.  The quality I am accustomed to from Marriott simply wasn't there.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>wesleybean2016, General Manager at Courtyard by Marriott Denver Southwest / Littleton, responded to this reviewResponded August 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2017</t>
+  </si>
+  <si>
+    <t>Not up to Marriott standards:
+1) The mattress was totally dented in on the side where most hotel guests in that room have slept.  We got a room with a king sized bed, so I'm guessing that room is frequently booked by single patrons and they all sleep on the same side of the bed.  No hotel room, especially a Marriott should have a mattress so worn out that it's obviously very used.
+2) Cleanliness- There was an old piece of leftover pizza crust under the sink, behind the waste basket.  There is a photo attached.  I don't mean to fault the cleaning staff for this since I'm pretty sure they probably never saw it.  It was easy to miss.  I have no idea how long the pizza crust had been there, and chances are it's probably still there (seriously).  I was too grossed out to pick it up myself.  Because I'm celiac My husband and I did not order pizza during our stay, so for a fact it's not ours.
+3) Refrigerator did not work.  Sadly my husband and I discovered this at the end of our stay.  We ate out at some nice restaurants in Denver and brought our leftovers back to the room and put them in the refrigerator without even thinking about it.  Two days later as we were packing to leave I pulled the leftovers out and realized they were not cold at all.  The...Not up to Marriott standards:1) The mattress was totally dented in on the side where most hotel guests in that room have slept.  We got a room with a king sized bed, so I'm guessing that room is frequently booked by single patrons and they all sleep on the same side of the bed.  No hotel room, especially a Marriott should have a mattress so worn out that it's obviously very used.2) Cleanliness- There was an old piece of leftover pizza crust under the sink, behind the waste basket.  There is a photo attached.  I don't mean to fault the cleaning staff for this since I'm pretty sure they probably never saw it.  It was easy to miss.  I have no idea how long the pizza crust had been there, and chances are it's probably still there (seriously).  I was too grossed out to pick it up myself.  Because I'm celiac My husband and I did not order pizza during our stay, so for a fact it's not ours.3) Refrigerator did not work.  Sadly my husband and I discovered this at the end of our stay.  We ate out at some nice restaurants in Denver and brought our leftovers back to the room and put them in the refrigerator without even thinking about it.  Two days later as we were packing to leave I pulled the leftovers out and realized they were not cold at all.  The refrigerator had not been operating at all and our food spoiled.  My husband told the front desk staff about it as we were leaving and they just looked at us and said "sorry", while continuing to check in incoming hotel guests.  My experience at this Marriott has me feeling a little soured on the company despite being a rewards member.  The quality I am accustomed to from Marriott simply wasn't there.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r504611904-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
   </si>
   <si>
@@ -593,15 +932,6 @@
     <t>One of the best hotels I have ever stayed at. Very clean and awesomely comfortable. I highly recommend spending the extra for a suite. It is so spacious and simply lovely.  Kudos to the staff.  Amber was an absolute delight and very helpful with questions about the area and trival question. I can't remember the woman's name but you can't miss her. She works at the bistro and is very skinny.  She is a wonderious delight and is always working to please every client of the hotel. Those two above all deserve a bonus and is what will bring me back to this hotel and sets it above the rest. MoreShow less</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
-    <t>wesleybean2016, General Manager at Courtyard by Marriott Denver Southwest / Littleton, responded to this reviewResponded August 1, 2017</t>
-  </si>
-  <si>
-    <t>Responded August 1, 2017</t>
-  </si>
-  <si>
     <t>One of the best hotels I have ever stayed at. Very clean and awesomely comfortable. I highly recommend spending the extra for a suite. It is so spacious and simply lovely.  Kudos to the staff.  Amber was an absolute delight and very helpful with questions about the area and trival question. I can't remember the woman's name but you can't miss her. She works at the bistro and is very skinny.  She is a wonderious delight and is always working to please every client of the hotel. Those two above all deserve a bonus and is what will bring me back to this hotel and sets it above the rest. More</t>
   </si>
   <si>
@@ -644,6 +974,42 @@
     <t>Stayed at this really nice hotel. The staff was super friendly and the room was very comfortable.I was able to get breakfast in hotel and the whole hotel was very homey and comfortable.Will definitely like to stay again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r500478849-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>500478849</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Absolutely beautiful. God bless their designer.</t>
+  </si>
+  <si>
+    <t>In 2 weeks I changed 12 hotels in Denver area. This hotel is absolutely one of my favorites. I enjoyed new, clean, modern design and free parking. The staff were weary friendly and welcoming. Really liked their designer, specialty where every table booth have a personal TV, and the main TV area in the lobby looks and feels very homey.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>In 2 weeks I changed 12 hotels in Denver area. This hotel is absolutely one of my favorites. I enjoyed new, clean, modern design and free parking. The staff were weary friendly and welcoming. Really liked their designer, specialty where every table booth have a personal TV, and the main TV area in the lobby looks and feels very homey.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r498066503-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>498066503</t>
+  </si>
+  <si>
+    <t>07/02/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My wife &amp; I stayed three nights at this hotel. Brand new, well designed &amp; decorated rooms. The staff is very friendly. We had dinner in the hotel Bistro &amp; it was great. We also liked the location, close to restaurants, shopping &amp; entertainment. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r496534013-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
   </si>
   <si>
@@ -701,6 +1067,45 @@
     <t>Talk about RUDE people!!!  We asked for a room with two beds and they said they wouldn't unless we paid for the room twice ?!? We thought it was a joke but it wasn't. Then we asked about breakfast yep for purchase in the morning (don't expect much).  We prepaid for our night and they charged us $20 for incidentals but we didn't buy a single thing and they charged us upon checking as we get notice on our cell phones when a charge has been made. We were so tired but be ware the beds are hard as a rock. The reason why the price is so high is because the ceilings are so tall that each floor is really like 1.5 floors high ( who cares). The thing that got me the most was just how rude the man at the counter was I can't stress that enough I willNEVER be back!!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r492239652-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>492239652</t>
+  </si>
+  <si>
+    <t>06/11/2017</t>
+  </si>
+  <si>
+    <t>Brand new hotel, clean and nice.</t>
+  </si>
+  <si>
+    <t>We spent one night here recently and thought the hotel was very nice. Clean, new and friendly staff made our stay a good one. There is a lot of construction in the neighborhood but there wasn't any noise in the morning. Not a lot of restaurants in the area, NoNo's Café is closest and excellent.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r490470762-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>490470762</t>
+  </si>
+  <si>
+    <t>06/04/2017</t>
+  </si>
+  <si>
+    <t>Beautiful new hotel</t>
+  </si>
+  <si>
+    <t>Very newly opened and still smells clean and new.  :) The room is decorated with new design that is sleek and seems easier to keep and look clean.  Only stayed one night and did not make use of the saltwater pool but hotel was comfortable and I would definitely stay here again when in the area.  Christian at the front desk was very friendly and helpful.  I would recommend asking for a room away from the elevator-- I noticed when the elevator "dings" to announce arrival it is unusually loud and I imagine can be heard in those rooms. Don't know if volume of that can be changed or not -- might just be a bug to work out at this new hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>wesleybean2016, General Manager at Courtyard by Marriott Denver Southwest / Littleton, responded to this reviewResponded June 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2017</t>
+  </si>
+  <si>
+    <t>Very newly opened and still smells clean and new.  :) The room is decorated with new design that is sleek and seems easier to keep and look clean.  Only stayed one night and did not make use of the saltwater pool but hotel was comfortable and I would definitely stay here again when in the area.  Christian at the front desk was very friendly and helpful.  I would recommend asking for a room away from the elevator-- I noticed when the elevator "dings" to announce arrival it is unusually loud and I imagine can be heard in those rooms. Don't know if volume of that can be changed or not -- might just be a bug to work out at this new hotel.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r487942585-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
   </si>
   <si>
@@ -755,6 +1160,45 @@
     <t>Everything in the hotel is clean. The bar has a hot chocolate.  The staff at the bar and front desk are super friendly and quick. The pool was freezing cold but they had guest towels and a great set up in the gym.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r479312948-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>479312948</t>
+  </si>
+  <si>
+    <t>04/26/2017</t>
+  </si>
+  <si>
+    <t>Modern, clean, and comfortable hotel</t>
+  </si>
+  <si>
+    <t>We stayed at the Marriott Courtyard last weekend, and loved it. The staff was great. The hotel was built in July 2016, so is very new and current. Our rooms were clean and nice, and the beds were extra comfortable. We enjoyed meeting in the lobby area, with the Starbucks, plus a bar and restaurant and lots of seating. We will definitely stay there again, and I recommend it highly.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r478691778-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>478691778</t>
+  </si>
+  <si>
+    <t>04/24/2017</t>
+  </si>
+  <si>
+    <t>A Great Stay</t>
+  </si>
+  <si>
+    <t>I stayed here for a few days as part of a business trip. Overall, this hotel was excellent in nearly every area! The front desk team is friendly and professional. I was checked in very quickly. My room was clean, modern and comfortable. Paul Mitchell shampoo was standard - nice touch! There was plenty of storage and the AC worked very well. The bed was very comfortable and there were plenty of outlets for charging phones and computers. Not far from this hotel are great places to eat. Two smallish gripes: The modern shower had no door so you get really cold when the water isn't hitting you. The other small, yet very annoying thing, was the TV. It worked great. But every time you turn it on, it automatically goes to a Marriott commercial of dancing "customers." It's loud and annoying. Not annoying enough to hurt my rating, though. Great stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>wesleybean2016, General Manager at Courtyard by Marriott Denver Southwest / Littleton, responded to this reviewResponded April 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 26, 2017</t>
+  </si>
+  <si>
+    <t>I stayed here for a few days as part of a business trip. Overall, this hotel was excellent in nearly every area! The front desk team is friendly and professional. I was checked in very quickly. My room was clean, modern and comfortable. Paul Mitchell shampoo was standard - nice touch! There was plenty of storage and the AC worked very well. The bed was very comfortable and there were plenty of outlets for charging phones and computers. Not far from this hotel are great places to eat. Two smallish gripes: The modern shower had no door so you get really cold when the water isn't hitting you. The other small, yet very annoying thing, was the TV. It worked great. But every time you turn it on, it automatically goes to a Marriott commercial of dancing "customers." It's loud and annoying. Not annoying enough to hurt my rating, though. Great stay!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r476842195-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
   </si>
   <si>
@@ -818,6 +1262,57 @@
     <t>We really enjoyed our stay. The new room design is really cool, especially the sofa and ottoman set up. That made for some good TV watching time. Breakfast was not included, however, we purchased breakfast and it was huge and quite good, better than a typical buffet. Pam and Nancy were both extremely helpful, they went well out of their way to make sure I had some important documents printed…Very appreciative! Great service, great hotel, we will return!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r470408750-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>470408750</t>
+  </si>
+  <si>
+    <t>03/26/2017</t>
+  </si>
+  <si>
+    <t>Lovely Stay</t>
+  </si>
+  <si>
+    <t>The Courtyard by Marriott in Denver was a really nice hotel, well finished and lovely staff. The shuttle was excellent with on time service and willing to take us where we wanted.The rooms were very nice and luxurious for the price. The bar had awesome food too!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Chris B, Director of Sales at Courtyard by Marriott Denver Southwest / Littleton, responded to this reviewResponded March 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2017</t>
+  </si>
+  <si>
+    <t>The Courtyard by Marriott in Denver was a really nice hotel, well finished and lovely staff. The shuttle was excellent with on time service and willing to take us where we wanted.The rooms were very nice and luxurious for the price. The bar had awesome food too!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r463889840-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>463889840</t>
+  </si>
+  <si>
+    <t>03/01/2017</t>
+  </si>
+  <si>
+    <t>Awesome and then some!</t>
+  </si>
+  <si>
+    <t>Wound up here after a snafu developed at my first choice of hotel in this area and if blessings are to be had and given then Chris the manager and his desk staff member Aaron deserve a huge round of appreciative good wishes and without any doubt my sincere thanks.They both made me feel welcomed and appreciated.The hotel itself is 4 months new and it is a gem of a Courtyard! Beautiful lobby and aaaahhhmazing rooms. Wow is not enough .If your travels bring you through the Littleton or greater Denver area and you need a nice beautiful rest than look no further.Yes the grounds are new and yes there is construction near by but overlook that for now and stay here. You will be impressed.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris B, Director of Sales at Courtyard by Marriott Denver Southwest / Littleton, responded to this reviewResponded March 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 3, 2017</t>
+  </si>
+  <si>
+    <t>Wound up here after a snafu developed at my first choice of hotel in this area and if blessings are to be had and given then Chris the manager and his desk staff member Aaron deserve a huge round of appreciative good wishes and without any doubt my sincere thanks.They both made me feel welcomed and appreciated.The hotel itself is 4 months new and it is a gem of a Courtyard! Beautiful lobby and aaaahhhmazing rooms. Wow is not enough .If your travels bring you through the Littleton or greater Denver area and you need a nice beautiful rest than look no further.Yes the grounds are new and yes there is construction near by but overlook that for now and stay here. You will be impressed.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r462616696-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
   </si>
   <si>
@@ -836,12 +1331,6 @@
     <t>February 2017</t>
   </si>
   <si>
-    <t>Chris B, Director of Sales at Courtyard by Marriott Denver Southwest / Littleton, responded to this reviewResponded March 3, 2017</t>
-  </si>
-  <si>
-    <t>Responded March 3, 2017</t>
-  </si>
-  <si>
     <t>A fresh look, very modern and friendly staff hotel. I liked the stay, the bed is excellent, rooms are clean and the bath room is sober. TV has streaming services like Netflix. So if you have an account you can watch your favourite shows. Breakfast is ok-ish. Not much to choose from and very  one sided. Would suggest to explore the nearby cafe where they serve breakfast. In the area there is lot much to do, you need a car to explore. But for it was an excellent location near the office I had to go to. More</t>
   </si>
   <si>
@@ -863,9 +1352,6 @@
     <t>January 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>I really appreciated the incredible customer service and courtesy of the staff at this property. There was plenty of parking, and I appreciated the proximity to I-25 and the Park Meadows Mall. I enjoyed my stay here.More</t>
   </si>
   <si>
@@ -893,6 +1379,48 @@
     <t>Some friends and I spent last weekend in Littleton. Loved the hotel!  It's very new and clean.  My girlfriend booked it through Expedia.  Unfortunately, the room we requested was not available.  Expedia messed up the reservation, and Emmy was SO helpful.  We ended up getting an extra room, free of charge, even though it was Expedia's fault.  The rooms were beautiful and the beds were very comfortable.  If I had to critique a few things, there wasn't much drawer/shelving space, and the pool was pretty chilly, considering it was a heated pool.  But it definitely would not stop me from returning there.  Aaron was also very helpful and kind.   I loved the hotel lobby/seating area... very enjoyable.  I do hope to return there in the near future!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r452414759-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>452414759</t>
+  </si>
+  <si>
+    <t>01/16/2017</t>
+  </si>
+  <si>
+    <t>Great Customer Service</t>
+  </si>
+  <si>
+    <t>I spent four nights at this hotel last week and I can not say enough good things.  The people seems to really take pride in their jobs and displayed the true meaning of hospitality!  I must say the high point of every morning was going down to the bistro (which you pay additionally for so be prepared) and having a cup of coffee with Darrell. Darrell was a joy and made a business trip more enjoyable!MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris B, Director of Sales at Courtyard by Marriott Denver Southwest / Littleton, responded to this reviewResponded January 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2017</t>
+  </si>
+  <si>
+    <t>I spent four nights at this hotel last week and I can not say enough good things.  The people seems to really take pride in their jobs and displayed the true meaning of hospitality!  I must say the high point of every morning was going down to the bistro (which you pay additionally for so be prepared) and having a cup of coffee with Darrell. Darrell was a joy and made a business trip more enjoyable!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r451805364-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>451805364</t>
+  </si>
+  <si>
+    <t>01/13/2017</t>
+  </si>
+  <si>
+    <t>Excellent stay with friendly, polite staff.</t>
+  </si>
+  <si>
+    <t>Stayed here over a week for work, and was greeted every morning by one of the most pleasant gentlemen (Darrell). One of the friendliest individuals I've had the pleasure of meeting. Room was clean, food (a bit pricey) was delicious, and the staff was very friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here over a week for work, and was greeted every morning by one of the most pleasant gentlemen (Darrell). One of the friendliest individuals I've had the pleasure of meeting. Room was clean, food (a bit pricey) was delicious, and the staff was very friendly.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r451592260-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
   </si>
   <si>
@@ -908,12 +1436,6 @@
     <t>A Gem.   I travel every week for work and have never encountered such a great staff.    Not only are they friendly, they actually work well together!   It makes for a very pleasant stay.       The rooms are full of outlets (hooray) and plenty of light.MoreShow less</t>
   </si>
   <si>
-    <t>Chris B, Director of Sales at Courtyard by Marriott Denver Southwest / Littleton, responded to this reviewResponded January 19, 2017</t>
-  </si>
-  <si>
-    <t>Responded January 19, 2017</t>
-  </si>
-  <si>
     <t>A Gem.   I travel every week for work and have never encountered such a great staff.    Not only are they friendly, they actually work well together!   It makes for a very pleasant stay.       The rooms are full of outlets (hooray) and plenty of light.More</t>
   </si>
   <si>
@@ -959,6 +1481,57 @@
     <t>We lived everything about this hotel and room/layout and features.  They have completely recreated the ultimate hotel room,  seriously!  Huge curtain less shower,  mic. Mini fridge and single serve coffee were excellent.  Loved the new sofa arenagement!  They have finally come up with the PERFECT TV viewing experience with free HBO and Showtime as well as super easy login if you use Netflix,  Hulu or other streaming service.  The TV remote is button less so it is easy for staff to keep clean,  what a concept!  The furniture is so practical!  This is now the only kind of room I will ever want!  Way to go Courtyard! More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r441425136-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>441425136</t>
+  </si>
+  <si>
+    <t>12/01/2016</t>
+  </si>
+  <si>
+    <t>Courtyard Prices and Marriott Service</t>
+  </si>
+  <si>
+    <t>I stayed Tu-Th and this staff really wowed me. For example, I'm a Starwoods member, who is getting grandfathered into Marriott points system, and I was asking about what my status gets me. Aaron, at the front desk, answered all my questions. Then later that night, he sent me a detailed email with links to find all the benefits I'm entitled to! Definitely above and beyond. Pam at the front desk was also a rock star. For this hotel only being 6 weeks old, they are all acting like veterans. I'll go out of my way to stay at this location again!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>wesleybean2016, General Manager at Courtyard by Marriott Denver Southwest / Littleton, responded to this reviewResponded December 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 2, 2016</t>
+  </si>
+  <si>
+    <t>I stayed Tu-Th and this staff really wowed me. For example, I'm a Starwoods member, who is getting grandfathered into Marriott points system, and I was asking about what my status gets me. Aaron, at the front desk, answered all my questions. Then later that night, he sent me a detailed email with links to find all the benefits I'm entitled to! Definitely above and beyond. Pam at the front desk was also a rock star. For this hotel only being 6 weeks old, they are all acting like veterans. I'll go out of my way to stay at this location again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r441233455-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>441233455</t>
+  </si>
+  <si>
+    <t>11/30/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Hotel - Amazing Staff </t>
+  </si>
+  <si>
+    <t>Brand new hotel in an excellent location.  Easy access to C470 and Santa Fe and all of Highlands Ranch. Staff members were very friendly and extremely accommodating. I will certainly be back the next time I am in the area. MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris B, Director of Sales at Courtyard by Marriott Denver Southwest / Littleton, responded to this reviewResponded December 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2016</t>
+  </si>
+  <si>
+    <t>Brand new hotel in an excellent location.  Easy access to C470 and Santa Fe and all of Highlands Ranch. Staff members were very friendly and extremely accommodating. I will certainly be back the next time I am in the area. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r440757237-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
   </si>
   <si>
@@ -974,9 +1547,6 @@
     <t>The staff at the Littleton Courtyard was exceptional!! Front desk, housekeeping, and f&amp;b staff were super friendly.  Each day wished our team good luck and had a great attitude.  The hotel is very clean and easy to get to from the freeway and main streets.   Defintely will stay again and recommend to anyone who is staying in Littleton, CO to stay at this hotel.  5 star staff!!MoreShow less</t>
   </si>
   <si>
-    <t>November 2016</t>
-  </si>
-  <si>
     <t>Chris B, Director of Sales at Courtyard by Marriott Denver Southwest / Littleton, responded to this reviewResponded November 30, 2016</t>
   </si>
   <si>
@@ -1020,6 +1590,54 @@
   </si>
   <si>
     <t>My wife and I stayed here when we went to a wedding at the Fall Center.  The Hotel was beautiful. This hotel is the new style for Courtyard.  The best part was the staff.  They were friendly and helpful and competent. .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d10627948-r434453014-Courtyard_by_Marriott_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>434453014</t>
+  </si>
+  <si>
+    <t>11/03/2016</t>
+  </si>
+  <si>
+    <t>Staff good, many problems</t>
+  </si>
+  <si>
+    <t>I was here for five nights for a business meeting that was held at the hotel. This is a brand new hotel, therefore I am giving it 4 stars. It is more like 3.5.
+ First the good:
+ The staff is very good and must have been trained very well before opening. Problems were handled to the best of their ability. The last day my room was cleaned, it was done with a lot of care. 
+  Rooms include a refrigerator, a microwave, and a coffee maker. 
+  The room, of course was clean. 
+  The location is nice and easy to get to. 
+  Free wifi that seems to work fairly well. 
+Now the bad:
+First the things that can be changed 
+  There isn't enough coffee packets in the room, probably because they want you to go downstairs to their expensive bistro 
+  The TV remote is not very good.  The remote doesn't have any numbers. That is annoying. I couldn't go back to the previous channel. 
+  The shower design is perhaps the stupidest thing I've ever seen. There is no bathtub, only a shower. There is glass dividing half of it and the rest of it is wide open to the bathroom. Water splashes out everywhere. They will have to put doors on the showers to prevent damage to the floors and wallpaper outside of the shower. 
+  Poor workmanship. My fan bathroom fan was crooked, the set screw was missing from the toilet paper...I was here for five nights for a business meeting that was held at the hotel. This is a brand new hotel, therefore I am giving it 4 stars. It is more like 3.5. First the good: The staff is very good and must have been trained very well before opening. Problems were handled to the best of their ability. The last day my room was cleaned, it was done with a lot of care.   Rooms include a refrigerator, a microwave, and a coffee maker.   The room, of course was clean.   The location is nice and easy to get to.   Free wifi that seems to work fairly well. Now the bad:First the things that can be changed   There isn't enough coffee packets in the room, probably because they want you to go downstairs to their expensive bistro   The TV remote is not very good.  The remote doesn't have any numbers. That is annoying. I couldn't go back to the previous channel.   The shower design is perhaps the stupidest thing I've ever seen. There is no bathtub, only a shower. There is glass dividing half of it and the rest of it is wide open to the bathroom. Water splashes out everywhere. They will have to put doors on the showers to prevent damage to the floors and wallpaper outside of the shower.   Poor workmanship. My fan bathroom fan was crooked, the set screw was missing from the toilet paper holder, and other small things that would be easy to fix.Now the things that can't/won't be fixed:  The HVAC is TERRIBLE. I had conference all week at the hotel and the temperature was never comfortable. It was too hot or too cold. My room was the same way. I would turn the AC on and set it at 75. It wouldn't come on until it was 77 and wouldn't turn off until it was 72.   My room faced C470. It was the noisiest room I have ever been in as far as traffic noise. I think the windows are triple pane, but must be poor quality. I barely slept the first two nights, then I was so tired that it didn't matter as much. It's not very good to be tired when you are there for business.   No free breakfast. That is normal for Courtyard, but not for this class of hotel. Their bistro is expensive and slightly inept. Overall, I think this place is ok. I would stay here again, but I would ask for a room that faces away from the highway. The rooms are pricey (my employer paid, so it wasn't a big deal to me), but I think that won't last long. They will have to discount the rooms in some way to increase occupancy rates (Priceline, Hotwire, etc.)MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris B, Director of Sales at Courtyard by Marriott Denver Southwest / Littleton, responded to this reviewResponded November 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 16, 2016</t>
+  </si>
+  <si>
+    <t>I was here for five nights for a business meeting that was held at the hotel. This is a brand new hotel, therefore I am giving it 4 stars. It is more like 3.5.
+ First the good:
+ The staff is very good and must have been trained very well before opening. Problems were handled to the best of their ability. The last day my room was cleaned, it was done with a lot of care. 
+  Rooms include a refrigerator, a microwave, and a coffee maker. 
+  The room, of course was clean. 
+  The location is nice and easy to get to. 
+  Free wifi that seems to work fairly well. 
+Now the bad:
+First the things that can be changed 
+  There isn't enough coffee packets in the room, probably because they want you to go downstairs to their expensive bistro 
+  The TV remote is not very good.  The remote doesn't have any numbers. That is annoying. I couldn't go back to the previous channel. 
+  The shower design is perhaps the stupidest thing I've ever seen. There is no bathtub, only a shower. There is glass dividing half of it and the rest of it is wide open to the bathroom. Water splashes out everywhere. They will have to put doors on the showers to prevent damage to the floors and wallpaper outside of the shower. 
+  Poor workmanship. My fan bathroom fan was crooked, the set screw was missing from the toilet paper...I was here for five nights for a business meeting that was held at the hotel. This is a brand new hotel, therefore I am giving it 4 stars. It is more like 3.5. First the good: The staff is very good and must have been trained very well before opening. Problems were handled to the best of their ability. The last day my room was cleaned, it was done with a lot of care.   Rooms include a refrigerator, a microwave, and a coffee maker.   The room, of course was clean.   The location is nice and easy to get to.   Free wifi that seems to work fairly well. Now the bad:First the things that can be changed   There isn't enough coffee packets in the room, probably because they want you to go downstairs to their expensive bistro   The TV remote is not very good.  The remote doesn't have any numbers. That is annoying. I couldn't go back to the previous channel.   The shower design is perhaps the stupidest thing I've ever seen. There is no bathtub, only a shower. There is glass dividing half of it and the rest of it is wide open to the bathroom. Water splashes out everywhere. They will have to put doors on the showers to prevent damage to the floors and wallpaper outside of the shower.   Poor workmanship. My fan bathroom fan was crooked, the set screw was missing from the toilet paper holder, and other small things that would be easy to fix.Now the things that can't/won't be fixed:  The HVAC is TERRIBLE. I had conference all week at the hotel and the temperature was never comfortable. It was too hot or too cold. My room was the same way. I would turn the AC on and set it at 75. It wouldn't come on until it was 77 and wouldn't turn off until it was 72.   My room faced C470. It was the noisiest room I have ever been in as far as traffic noise. I think the windows are triple pane, but must be poor quality. I barely slept the first two nights, then I was so tired that it didn't matter as much. It's not very good to be tired when you are there for business.   No free breakfast. That is normal for Courtyard, but not for this class of hotel. Their bistro is expensive and slightly inept. Overall, I think this place is ok. I would stay here again, but I would ask for a room that faces away from the highway. The rooms are pricey (my employer paid, so it wasn't a big deal to me), but I think that won't last long. They will have to discount the rooms in some way to increase occupancy rates (Priceline, Hotwire, etc.)More</t>
   </si>
 </sst>
 </file>
@@ -1554,7 +2172,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1562,9 +2180,7 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="n">
-        <v>5</v>
-      </c>
+      <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="n">
@@ -1577,10 +2193,14 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -1596,7 +2216,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1605,25 +2225,25 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1634,10 +2254,14 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -1653,40 +2277,42 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>62</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L4" t="s">
-        <v>66</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>67</v>
-      </c>
       <c r="O4" t="s">
-        <v>60</v>
-      </c>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>5</v>
-      </c>
-      <c r="R4" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
@@ -1695,10 +2321,14 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
+      <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -1714,7 +2344,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1723,32 +2353,38 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" t="s">
         <v>72</v>
       </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>67</v>
-      </c>
-      <c r="O5" t="s">
-        <v>60</v>
-      </c>
-      <c r="P5" t="s"/>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
@@ -1759,7 +2395,7 @@
         <v>74</v>
       </c>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
@@ -1775,7 +2411,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1784,16 +2420,16 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
@@ -1802,31 +2438,25 @@
         <v>81</v>
       </c>
       <c r="O6" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="X6" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
@@ -1842,7 +2472,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1851,30 +2481,30 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="O7" t="s">
         <v>53</v>
       </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
@@ -1885,13 +2515,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="X7" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
@@ -1907,42 +2537,40 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>94</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
-        <v>95</v>
-      </c>
-      <c r="J8" t="s">
-        <v>96</v>
-      </c>
-      <c r="K8" t="s">
-        <v>97</v>
-      </c>
-      <c r="L8" t="s">
-        <v>98</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>99</v>
-      </c>
       <c r="O8" t="s">
-        <v>60</v>
-      </c>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
@@ -1952,13 +2580,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="X8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Y8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
@@ -1974,7 +2602,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1983,34 +2611,34 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="P9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
-      <c r="S9" t="n">
-        <v>5</v>
-      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
         <v>5</v>
@@ -2019,10 +2647,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="X9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Y9" t="s">
         <v>109</v>
@@ -2053,46 +2681,40 @@
         <v>111</v>
       </c>
       <c r="J10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" t="s">
         <v>112</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>113</v>
       </c>
-      <c r="L10" t="s">
-        <v>114</v>
-      </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="O10" t="s">
-        <v>60</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>2</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="X10" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="Y10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
@@ -2108,52 +2730,58 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" t="s">
+        <v>117</v>
+      </c>
+      <c r="K11" t="s">
         <v>118</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="L11" t="s">
         <v>119</v>
       </c>
-      <c r="J11" t="s">
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
         <v>120</v>
       </c>
-      <c r="K11" t="s">
+      <c r="O11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
         <v>121</v>
       </c>
-      <c r="L11" t="s">
+      <c r="X11" t="s">
         <v>122</v>
       </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="Y11" t="s">
         <v>123</v>
-      </c>
-      <c r="O11" t="s">
-        <v>53</v>
-      </c>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
-      <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="s">
-        <v>115</v>
-      </c>
-      <c r="X11" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="12">
@@ -2169,52 +2797,56 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
         <v>125</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>126</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>127</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>128</v>
       </c>
-      <c r="L12" t="s">
-        <v>129</v>
-      </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="O12" t="s">
-        <v>60</v>
-      </c>
-      <c r="P12" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
+        <v>129</v>
+      </c>
+      <c r="X12" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y12" t="s">
         <v>131</v>
-      </c>
-      <c r="X12" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="13">
@@ -2230,35 +2862,31 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>133</v>
+      </c>
+      <c r="J13" t="s">
         <v>134</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>135</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
         <v>136</v>
       </c>
-      <c r="K13" t="s">
-        <v>137</v>
-      </c>
-      <c r="L13" t="s">
-        <v>138</v>
-      </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
-      <c r="N13" t="s">
-        <v>123</v>
-      </c>
-      <c r="O13" t="s">
-        <v>60</v>
-      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
@@ -2269,13 +2897,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="X13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Y13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14">
@@ -2291,41 +2919,39 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>139</v>
+      </c>
+      <c r="J14" t="s">
         <v>140</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
         <v>141</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>142</v>
       </c>
-      <c r="K14" t="s">
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
         <v>143</v>
       </c>
-      <c r="L14" t="s">
-        <v>144</v>
-      </c>
-      <c r="M14" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="s">
-        <v>130</v>
-      </c>
       <c r="O14" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P14" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
@@ -2336,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
+        <v>144</v>
+      </c>
+      <c r="X14" t="s">
         <v>145</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>146</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="15">
@@ -2358,39 +2984,41 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>147</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
         <v>148</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>149</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>150</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>151</v>
       </c>
-      <c r="L15" t="s">
-        <v>152</v>
-      </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="O15" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
       <c r="R15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
@@ -2401,10 +3029,10 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="X15" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="Y15" t="s">
         <v>154</v>
@@ -2447,19 +3075,19 @@
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
-      </c>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="n">
-        <v>5</v>
-      </c>
-      <c r="R16" t="n">
+        <v>72</v>
+      </c>
+      <c r="P16" t="n">
         <v>4</v>
       </c>
-      <c r="S16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
         <v>5</v>
@@ -2468,13 +3096,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="X16" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="Y16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17">
@@ -2490,7 +3118,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2499,37 +3127,37 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="O17" t="s">
-        <v>82</v>
-      </c>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="n">
-        <v>4</v>
-      </c>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
-      <c r="S17" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2578,37 +3206,31 @@
         <v>174</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="O18" t="s">
-        <v>60</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>1</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
+        <v>167</v>
+      </c>
+      <c r="X18" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y18" t="s">
         <v>175</v>
-      </c>
-      <c r="X18" t="s">
-        <v>176</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="19">
@@ -2624,58 +3246,48 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>176</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>177</v>
+      </c>
+      <c r="J19" t="s">
         <v>178</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="K19" t="s">
         <v>179</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
         <v>180</v>
-      </c>
-      <c r="K19" t="s">
-        <v>181</v>
-      </c>
-      <c r="L19" t="s">
-        <v>182</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
-      <c r="N19" t="s">
-        <v>166</v>
-      </c>
-      <c r="O19" t="s">
-        <v>53</v>
-      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
       <c r="P19" t="s"/>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
-      <c r="R19" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="X19" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="Y19" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20">
@@ -2691,34 +3303,34 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
+        <v>182</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>183</v>
+      </c>
+      <c r="J20" t="s">
+        <v>184</v>
+      </c>
+      <c r="K20" t="s">
+        <v>185</v>
+      </c>
+      <c r="L20" t="s">
         <v>186</v>
       </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
         <v>187</v>
       </c>
-      <c r="J20" t="s">
-        <v>188</v>
-      </c>
-      <c r="K20" t="s">
-        <v>189</v>
-      </c>
-      <c r="L20" t="s">
-        <v>190</v>
-      </c>
-      <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="s">
-        <v>191</v>
-      </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2730,13 +3342,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="X20" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="Y20" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21">
@@ -2752,7 +3364,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2761,25 +3373,25 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="J21" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K21" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="L21" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O21" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2791,13 +3403,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="X21" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="Y21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22">
@@ -2813,34 +3425,34 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
+        <v>198</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>199</v>
+      </c>
+      <c r="J22" t="s">
         <v>200</v>
       </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="K22" t="s">
         <v>201</v>
       </c>
-      <c r="J22" t="s">
+      <c r="L22" t="s">
         <v>202</v>
       </c>
-      <c r="K22" t="s">
-        <v>203</v>
-      </c>
-      <c r="L22" t="s">
-        <v>204</v>
-      </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="O22" t="s">
-        <v>206</v>
+        <v>53</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2852,13 +3464,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="X22" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="Y22" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23">
@@ -2874,54 +3486,48 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
+        <v>204</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>205</v>
+      </c>
+      <c r="J23" t="s">
+        <v>206</v>
+      </c>
+      <c r="K23" t="s">
+        <v>207</v>
+      </c>
+      <c r="L23" t="s">
         <v>208</v>
       </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" t="s">
-        <v>209</v>
-      </c>
-      <c r="J23" t="s">
-        <v>210</v>
-      </c>
-      <c r="K23" t="s">
-        <v>211</v>
-      </c>
-      <c r="L23" t="s">
-        <v>212</v>
-      </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
-      <c r="N23" t="s">
-        <v>130</v>
-      </c>
-      <c r="O23" t="s">
-        <v>53</v>
-      </c>
-      <c r="P23" t="n">
-        <v>5</v>
-      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
-      <c r="S23" t="n">
-        <v>5</v>
-      </c>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>195</v>
+      </c>
+      <c r="X23" t="s">
+        <v>196</v>
+      </c>
       <c r="Y23" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24">
@@ -2937,52 +3543,50 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
+        <v>210</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>211</v>
+      </c>
+      <c r="J24" t="s">
+        <v>212</v>
+      </c>
+      <c r="K24" t="s">
+        <v>213</v>
+      </c>
+      <c r="L24" t="s">
         <v>214</v>
       </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
         <v>215</v>
       </c>
-      <c r="J24" t="s">
-        <v>216</v>
-      </c>
-      <c r="K24" t="s">
-        <v>217</v>
-      </c>
-      <c r="L24" t="s">
-        <v>218</v>
-      </c>
-      <c r="M24" t="n">
-        <v>5</v>
-      </c>
-      <c r="N24" t="s">
-        <v>205</v>
-      </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
-      <c r="R24" t="n">
-        <v>5</v>
-      </c>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>216</v>
+      </c>
+      <c r="X24" t="s">
+        <v>217</v>
+      </c>
       <c r="Y24" t="s">
         <v>218</v>
       </c>
@@ -3021,31 +3625,37 @@
         <v>223</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="O25" t="s">
-        <v>206</v>
-      </c>
-      <c r="P25" t="s"/>
-      <c r="Q25" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
       <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
+        <v>216</v>
+      </c>
+      <c r="X25" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y25" t="s">
         <v>224</v>
-      </c>
-      <c r="X25" t="s">
-        <v>225</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="26">
@@ -3061,52 +3671,56 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
+        <v>225</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>226</v>
+      </c>
+      <c r="J26" t="s">
         <v>227</v>
       </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="K26" t="s">
         <v>228</v>
       </c>
-      <c r="J26" t="s">
+      <c r="L26" t="s">
         <v>229</v>
       </c>
-      <c r="K26" t="s">
-        <v>230</v>
-      </c>
-      <c r="L26" t="s">
-        <v>231</v>
-      </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>130</v>
+        <v>215</v>
       </c>
       <c r="O26" t="s">
         <v>53</v>
       </c>
-      <c r="P26" t="n">
-        <v>3</v>
-      </c>
+      <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
-      <c r="R26" t="s"/>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
+      <c r="W26" t="s">
+        <v>216</v>
+      </c>
+      <c r="X26" t="s">
+        <v>217</v>
+      </c>
       <c r="Y26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27">
@@ -3122,19 +3736,19 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
+        <v>231</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
         <v>232</v>
       </c>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>233</v>
-      </c>
-      <c r="J27" t="s">
-        <v>229</v>
       </c>
       <c r="K27" t="s">
         <v>234</v>
@@ -3146,24 +3760,34 @@
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="O27" t="s">
-        <v>206</v>
+        <v>72</v>
       </c>
       <c r="P27" t="s"/>
-      <c r="Q27" t="s"/>
-      <c r="R27" t="s"/>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>216</v>
+      </c>
+      <c r="X27" t="s">
+        <v>217</v>
+      </c>
       <c r="Y27" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28">
@@ -3200,14 +3824,10 @@
         <v>241</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
-      </c>
-      <c r="N28" t="s">
-        <v>130</v>
-      </c>
-      <c r="O28" t="s">
-        <v>53</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
@@ -3264,28 +3884,34 @@
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="O29" t="s">
-        <v>60</v>
-      </c>
-      <c r="P29" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
       <c r="Q29" t="s"/>
-      <c r="R29" t="s"/>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
+        <v>242</v>
+      </c>
+      <c r="X29" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y29" t="s">
         <v>250</v>
-      </c>
-      <c r="X29" t="s">
-        <v>251</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="30">
@@ -3301,41 +3927,43 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
+        <v>251</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>252</v>
+      </c>
+      <c r="J30" t="s">
         <v>253</v>
       </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="K30" t="s">
         <v>254</v>
       </c>
-      <c r="J30" t="s">
+      <c r="L30" t="s">
         <v>255</v>
       </c>
-      <c r="K30" t="s">
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
         <v>256</v>
       </c>
-      <c r="L30" t="s">
-        <v>257</v>
-      </c>
-      <c r="M30" t="n">
-        <v>5</v>
-      </c>
-      <c r="N30" t="s">
-        <v>236</v>
-      </c>
       <c r="O30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P30" t="s"/>
-      <c r="Q30" t="s"/>
-      <c r="R30" t="s"/>
-      <c r="S30" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
         <v>5</v>
@@ -3343,10 +3971,14 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>257</v>
+      </c>
+      <c r="X30" t="s">
+        <v>258</v>
+      </c>
       <c r="Y30" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31">
@@ -3362,7 +3994,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3371,39 +4003,49 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="J31" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K31" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L31" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
-      </c>
-      <c r="N31" t="s"/>
-      <c r="O31" t="s"/>
-      <c r="P31" t="s"/>
-      <c r="Q31" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>256</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
       <c r="R31" t="s"/>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="X31" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Y31" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32">
@@ -3419,7 +4061,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3428,43 +4070,49 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="J32" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K32" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L32" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="O32" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="P32" t="s"/>
-      <c r="Q32" t="s"/>
-      <c r="R32" t="s"/>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
       <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="X32" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Y32" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33">
@@ -3480,7 +4128,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3489,26 +4137,22 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J33" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K33" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L33" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
-      <c r="N33" t="s">
-        <v>280</v>
-      </c>
-      <c r="O33" t="s">
-        <v>281</v>
-      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
@@ -3519,13 +4163,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="X33" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Y33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34">
@@ -3541,45 +4185,41 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
+        <v>282</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
         <v>283</v>
       </c>
-      <c r="G34" t="s">
-        <v>46</v>
-      </c>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>284</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>285</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>286</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
         <v>287</v>
       </c>
-      <c r="M34" t="n">
-        <v>5</v>
-      </c>
-      <c r="N34" t="s">
-        <v>280</v>
-      </c>
       <c r="O34" t="s">
-        <v>206</v>
+        <v>63</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
-      <c r="R34" t="n">
-        <v>5</v>
-      </c>
+      <c r="R34" t="s"/>
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>5</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
@@ -3630,34 +4270,28 @@
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="O35" t="s">
-        <v>60</v>
-      </c>
-      <c r="P35" t="n">
-        <v>5</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
       <c r="R35" t="s"/>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>5</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
+        <v>288</v>
+      </c>
+      <c r="X35" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y35" t="s">
         <v>296</v>
-      </c>
-      <c r="X35" t="s">
-        <v>297</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="36">
@@ -3673,7 +4307,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3682,47 +4316,43 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J36" t="s">
         <v>293</v>
       </c>
       <c r="K36" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L36" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="O36" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P36" t="s"/>
-      <c r="Q36" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>5</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="X36" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="Y36" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37">
@@ -3738,34 +4368,34 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
+        <v>302</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>303</v>
+      </c>
+      <c r="J37" t="s">
         <v>304</v>
       </c>
-      <c r="G37" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" t="s">
-        <v>47</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="K37" t="s">
         <v>305</v>
       </c>
-      <c r="J37" t="s">
+      <c r="L37" t="s">
         <v>306</v>
       </c>
-      <c r="K37" t="s">
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
         <v>307</v>
       </c>
-      <c r="L37" t="s">
+      <c r="O37" t="s">
         <v>308</v>
-      </c>
-      <c r="M37" t="n">
-        <v>5</v>
-      </c>
-      <c r="N37" t="s">
-        <v>309</v>
-      </c>
-      <c r="O37" t="s">
-        <v>53</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -3777,13 +4407,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="X37" t="s">
-        <v>311</v>
+        <v>274</v>
       </c>
       <c r="Y37" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="38">
@@ -3799,52 +4429,58 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
+        <v>310</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>311</v>
+      </c>
+      <c r="J38" t="s">
+        <v>312</v>
+      </c>
+      <c r="K38" t="s">
         <v>313</v>
       </c>
-      <c r="G38" t="s">
-        <v>46</v>
-      </c>
-      <c r="H38" t="s">
-        <v>47</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="L38" t="s">
         <v>314</v>
       </c>
-      <c r="J38" t="s">
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>307</v>
+      </c>
+      <c r="O38" t="s">
         <v>315</v>
       </c>
-      <c r="K38" t="s">
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>273</v>
+      </c>
+      <c r="X38" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y38" t="s">
         <v>316</v>
-      </c>
-      <c r="L38" t="s">
-        <v>317</v>
-      </c>
-      <c r="M38" t="n">
-        <v>5</v>
-      </c>
-      <c r="N38" t="s">
-        <v>318</v>
-      </c>
-      <c r="O38" t="s">
-        <v>53</v>
-      </c>
-      <c r="P38" t="s"/>
-      <c r="Q38" t="s"/>
-      <c r="R38" t="s"/>
-      <c r="S38" t="s"/>
-      <c r="T38" t="s"/>
-      <c r="U38" t="s"/>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="s">
-        <v>319</v>
-      </c>
-      <c r="X38" t="s">
-        <v>320</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="39">
@@ -3860,7 +4496,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -3869,25 +4505,25 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="J39" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="K39" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="L39" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="O39" t="s">
-        <v>281</v>
+        <v>72</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -3898,14 +4534,10 @@
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s">
-        <v>319</v>
-      </c>
-      <c r="X39" t="s">
-        <v>320</v>
-      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="40">
@@ -3921,7 +4553,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -3930,30 +4562,30 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="J40" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="K40" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="L40" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>318</v>
+        <v>194</v>
       </c>
       <c r="O40" t="s">
-        <v>82</v>
-      </c>
-      <c r="P40" t="s"/>
-      <c r="Q40" t="n">
-        <v>5</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="s"/>
       <c r="R40" t="s"/>
       <c r="S40" t="n">
         <v>5</v>
@@ -3965,14 +4597,1768 @@
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s">
-        <v>319</v>
-      </c>
-      <c r="X40" t="s">
-        <v>320</v>
-      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
       <c r="Y40" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>328</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>329</v>
+      </c>
+      <c r="J41" t="s">
+        <v>330</v>
+      </c>
+      <c r="K41" t="s">
+        <v>331</v>
+      </c>
+      <c r="L41" t="s">
+        <v>332</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>307</v>
+      </c>
+      <c r="O41" t="s">
+        <v>72</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
         <v>333</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>334</v>
+      </c>
+      <c r="J42" t="s">
+        <v>335</v>
+      </c>
+      <c r="K42" t="s">
+        <v>336</v>
+      </c>
+      <c r="L42" t="s">
+        <v>337</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>307</v>
+      </c>
+      <c r="O42" t="s">
+        <v>308</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>338</v>
+      </c>
+      <c r="X42" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>341</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>342</v>
+      </c>
+      <c r="J43" t="s">
+        <v>343</v>
+      </c>
+      <c r="K43" t="s">
+        <v>344</v>
+      </c>
+      <c r="L43" t="s">
+        <v>345</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>194</v>
+      </c>
+      <c r="O43" t="s">
+        <v>63</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>346</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>347</v>
+      </c>
+      <c r="J44" t="s">
+        <v>348</v>
+      </c>
+      <c r="K44" t="s">
+        <v>349</v>
+      </c>
+      <c r="L44" t="s">
+        <v>350</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>194</v>
+      </c>
+      <c r="O44" t="s">
+        <v>72</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>351</v>
+      </c>
+      <c r="X44" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>354</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>355</v>
+      </c>
+      <c r="J45" t="s">
+        <v>356</v>
+      </c>
+      <c r="K45" t="s">
+        <v>357</v>
+      </c>
+      <c r="L45" t="s">
+        <v>358</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>194</v>
+      </c>
+      <c r="O45" t="s">
+        <v>72</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>359</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>360</v>
+      </c>
+      <c r="J46" t="s">
+        <v>356</v>
+      </c>
+      <c r="K46" t="s">
+        <v>361</v>
+      </c>
+      <c r="L46" t="s">
+        <v>362</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>363</v>
+      </c>
+      <c r="O46" t="s">
+        <v>308</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>364</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>365</v>
+      </c>
+      <c r="J47" t="s">
+        <v>366</v>
+      </c>
+      <c r="K47" t="s">
+        <v>367</v>
+      </c>
+      <c r="L47" t="s">
+        <v>368</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>194</v>
+      </c>
+      <c r="O47" t="s">
+        <v>72</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>369</v>
+      </c>
+      <c r="X47" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>372</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>373</v>
+      </c>
+      <c r="J48" t="s">
+        <v>374</v>
+      </c>
+      <c r="K48" t="s">
+        <v>375</v>
+      </c>
+      <c r="L48" t="s">
+        <v>376</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>363</v>
+      </c>
+      <c r="O48" t="s">
+        <v>72</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>377</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>378</v>
+      </c>
+      <c r="J49" t="s">
+        <v>379</v>
+      </c>
+      <c r="K49" t="s">
+        <v>380</v>
+      </c>
+      <c r="L49" t="s">
+        <v>381</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>363</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>382</v>
+      </c>
+      <c r="X49" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>385</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>386</v>
+      </c>
+      <c r="J50" t="s">
+        <v>387</v>
+      </c>
+      <c r="K50" t="s">
+        <v>388</v>
+      </c>
+      <c r="L50" t="s">
+        <v>389</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>363</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>390</v>
+      </c>
+      <c r="X50" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>393</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>394</v>
+      </c>
+      <c r="J51" t="s">
+        <v>395</v>
+      </c>
+      <c r="K51" t="s">
+        <v>396</v>
+      </c>
+      <c r="L51" t="s">
+        <v>397</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>363</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>398</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>399</v>
+      </c>
+      <c r="J52" t="s">
+        <v>400</v>
+      </c>
+      <c r="K52" t="s">
+        <v>401</v>
+      </c>
+      <c r="L52" t="s">
+        <v>402</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>403</v>
+      </c>
+      <c r="X52" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>406</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>407</v>
+      </c>
+      <c r="J53" t="s">
+        <v>408</v>
+      </c>
+      <c r="K53" t="s">
+        <v>409</v>
+      </c>
+      <c r="L53" t="s">
+        <v>410</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>411</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>412</v>
+      </c>
+      <c r="X53" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>415</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>416</v>
+      </c>
+      <c r="J54" t="s">
+        <v>417</v>
+      </c>
+      <c r="K54" t="s">
+        <v>418</v>
+      </c>
+      <c r="L54" t="s">
+        <v>419</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>411</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>420</v>
+      </c>
+      <c r="X54" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>423</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>424</v>
+      </c>
+      <c r="J55" t="s">
+        <v>425</v>
+      </c>
+      <c r="K55" t="s">
+        <v>426</v>
+      </c>
+      <c r="L55" t="s">
+        <v>427</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>428</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>420</v>
+      </c>
+      <c r="X55" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>430</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>431</v>
+      </c>
+      <c r="J56" t="s">
+        <v>432</v>
+      </c>
+      <c r="K56" t="s">
+        <v>433</v>
+      </c>
+      <c r="L56" t="s">
+        <v>434</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>435</v>
+      </c>
+      <c r="O56" t="s">
+        <v>315</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>420</v>
+      </c>
+      <c r="X56" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>437</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>438</v>
+      </c>
+      <c r="J57" t="s">
+        <v>439</v>
+      </c>
+      <c r="K57" t="s">
+        <v>440</v>
+      </c>
+      <c r="L57" t="s">
+        <v>441</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>435</v>
+      </c>
+      <c r="O57" t="s">
+        <v>308</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>442</v>
+      </c>
+      <c r="X57" t="s">
+        <v>443</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>445</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>446</v>
+      </c>
+      <c r="J58" t="s">
+        <v>447</v>
+      </c>
+      <c r="K58" t="s">
+        <v>448</v>
+      </c>
+      <c r="L58" t="s">
+        <v>449</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>435</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>450</v>
+      </c>
+      <c r="X58" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>453</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>454</v>
+      </c>
+      <c r="J59" t="s">
+        <v>455</v>
+      </c>
+      <c r="K59" t="s">
+        <v>456</v>
+      </c>
+      <c r="L59" t="s">
+        <v>457</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>435</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>450</v>
+      </c>
+      <c r="X59" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>459</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>460</v>
+      </c>
+      <c r="J60" t="s">
+        <v>461</v>
+      </c>
+      <c r="K60" t="s">
+        <v>462</v>
+      </c>
+      <c r="L60" t="s">
+        <v>463</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>435</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>450</v>
+      </c>
+      <c r="X60" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>465</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>466</v>
+      </c>
+      <c r="J61" t="s">
+        <v>461</v>
+      </c>
+      <c r="K61" t="s">
+        <v>467</v>
+      </c>
+      <c r="L61" t="s">
+        <v>468</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>435</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>450</v>
+      </c>
+      <c r="X61" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>470</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>471</v>
+      </c>
+      <c r="J62" t="s">
+        <v>472</v>
+      </c>
+      <c r="K62" t="s">
+        <v>473</v>
+      </c>
+      <c r="L62" t="s">
+        <v>474</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>475</v>
+      </c>
+      <c r="O62" t="s">
+        <v>72</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>476</v>
+      </c>
+      <c r="X62" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>479</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>480</v>
+      </c>
+      <c r="J63" t="s">
+        <v>481</v>
+      </c>
+      <c r="K63" t="s">
+        <v>482</v>
+      </c>
+      <c r="L63" t="s">
+        <v>483</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>484</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>485</v>
+      </c>
+      <c r="X63" t="s">
+        <v>486</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>488</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>489</v>
+      </c>
+      <c r="J64" t="s">
+        <v>490</v>
+      </c>
+      <c r="K64" t="s">
+        <v>491</v>
+      </c>
+      <c r="L64" t="s">
+        <v>492</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>475</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>493</v>
+      </c>
+      <c r="X64" t="s">
+        <v>494</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>496</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>497</v>
+      </c>
+      <c r="J65" t="s">
+        <v>498</v>
+      </c>
+      <c r="K65" t="s">
+        <v>499</v>
+      </c>
+      <c r="L65" t="s">
+        <v>500</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>484</v>
+      </c>
+      <c r="O65" t="s">
+        <v>72</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>501</v>
+      </c>
+      <c r="X65" t="s">
+        <v>502</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>504</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>505</v>
+      </c>
+      <c r="J66" t="s">
+        <v>506</v>
+      </c>
+      <c r="K66" t="s">
+        <v>507</v>
+      </c>
+      <c r="L66" t="s">
+        <v>508</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>484</v>
+      </c>
+      <c r="O66" t="s">
+        <v>315</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>501</v>
+      </c>
+      <c r="X66" t="s">
+        <v>502</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>510</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>511</v>
+      </c>
+      <c r="J67" t="s">
+        <v>512</v>
+      </c>
+      <c r="K67" t="s">
+        <v>513</v>
+      </c>
+      <c r="L67" t="s">
+        <v>514</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>484</v>
+      </c>
+      <c r="O67" t="s">
+        <v>63</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="s"/>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>501</v>
+      </c>
+      <c r="X67" t="s">
+        <v>502</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>65399</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>516</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>517</v>
+      </c>
+      <c r="J68" t="s">
+        <v>518</v>
+      </c>
+      <c r="K68" t="s">
+        <v>519</v>
+      </c>
+      <c r="L68" t="s">
+        <v>520</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>484</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>521</v>
+      </c>
+      <c r="X68" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>523</v>
       </c>
     </row>
   </sheetData>
